--- a/Components.xlsx
+++ b/Components.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Services - Repositeries" sheetId="1" r:id="rId1"/>
     <sheet name="Helpers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>Service Name</t>
   </si>
@@ -111,13 +111,130 @@
   </si>
   <si>
     <t>Description :  we have used this folder for helper functions which are used through out application.</t>
+  </si>
+  <si>
+    <t>Sponsors</t>
+  </si>
+  <si>
+    <t>App\Services\Sponsors\Contracts\SponsorsRepository</t>
+  </si>
+  <si>
+    <t>gerAllSponsors</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active sponsors in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>saveSponsorDetail</t>
+  </si>
+  <si>
+    <t>$sponsorDetail</t>
+  </si>
+  <si>
+    <t>Save the sponsor's detail passed in the array and return the object of updated deatil of sponsor</t>
+  </si>
+  <si>
+    <t>deleteSponsor</t>
+  </si>
+  <si>
+    <t>Delete the sponsor from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>App\Services\Parents\Contracts\ParentsRepository</t>
+  </si>
+  <si>
+    <t>gerAllParents</t>
+  </si>
+  <si>
+    <t>saveParentDetail</t>
+  </si>
+  <si>
+    <t>deleteParent</t>
+  </si>
+  <si>
+    <t>$parentDetail</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active parents in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>Delete the parent from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Save the parent's detail passed in the array and return the object of updated deatil of parent</t>
+  </si>
+  <si>
+    <t>createAudit</t>
+  </si>
+  <si>
+    <t>$userId</t>
+  </si>
+  <si>
+    <t>$userType</t>
+  </si>
+  <si>
+    <t>$action</t>
+  </si>
+  <si>
+    <t>$objectType</t>
+  </si>
+  <si>
+    <t>$objectId</t>
+  </si>
+  <si>
+    <t>$origin</t>
+  </si>
+  <si>
+    <t>$message</t>
+  </si>
+  <si>
+    <t>$extra</t>
+  </si>
+  <si>
+    <t>getActiveSchools</t>
+  </si>
+  <si>
+    <t>getCountries</t>
+  </si>
+  <si>
+    <t>create the Audit based on the passed data and return object in the system</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>return array of status data in system</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>$ip</t>
+  </si>
+  <si>
+    <t>fetch and return array of all active school in the system</t>
+  </si>
+  <si>
+    <t>fetch and return array of all country in the system</t>
+  </si>
+  <si>
+    <t>fetch and return array of all teenager detail in system</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -191,11 +308,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -221,14 +386,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -320,7 +508,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -355,7 +542,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,14 +717,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
@@ -550,19 +736,19 @@
     <col min="8" max="8" width="89.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -614,7 +800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -634,7 +820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -652,6 +838,138 @@
       </c>
       <c r="H5" s="8" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -663,63 +981,270 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="146.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="95" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>30</v>
       </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Services - Repositeries" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
   <si>
     <t>Service Name</t>
   </si>
@@ -228,6 +228,36 @@
   </si>
   <si>
     <t>fetch and return array of all teenager detail in system</t>
+  </si>
+  <si>
+    <t>Schools</t>
+  </si>
+  <si>
+    <t>App\Services\Schools\Contracts\SchoolsRepository</t>
+  </si>
+  <si>
+    <t>getAllSchools</t>
+  </si>
+  <si>
+    <t>saveSchoolDetail</t>
+  </si>
+  <si>
+    <t>deleteSchool</t>
+  </si>
+  <si>
+    <t>$schoolDetail</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active schools in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>Save the school's detail passed in the array and return the object of updated deatil of school</t>
+  </si>
+  <si>
+    <t>Delete the school from id passed and return the boolean true/false based on action performed</t>
   </si>
 </sst>
 </file>
@@ -392,32 +422,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -737,16 +767,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -970,6 +1000,72 @@
       </c>
       <c r="H13" s="8" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1001,55 +1097,55 @@
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Services - Repositeries" sheetId="1" r:id="rId1"/>
     <sheet name="Helpers" sheetId="2" r:id="rId2"/>
+    <sheet name="Controller" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="188">
   <si>
     <t>Service Name</t>
   </si>
@@ -227,9 +228,6 @@
     <t>fetch and return array of all country in the system</t>
   </si>
   <si>
-    <t>fetch and return array of all teenager detail in system</t>
-  </si>
-  <si>
     <t>Schools</t>
   </si>
   <si>
@@ -258,6 +256,330 @@
   </si>
   <si>
     <t>Delete the school from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>getActiveTeenagers</t>
+  </si>
+  <si>
+    <t>fetch and return array of all active teenager detail in system</t>
+  </si>
+  <si>
+    <t>Professions</t>
+  </si>
+  <si>
+    <t>App\Services\Professions\Contracts\SchoolsRepository</t>
+  </si>
+  <si>
+    <t>getAllProfessions</t>
+  </si>
+  <si>
+    <t>saveProfessionDetail</t>
+  </si>
+  <si>
+    <t>deleteProfession</t>
+  </si>
+  <si>
+    <t>$professionDetail</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active professions in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>Save the profession's detail passed in the array and return the object of updated deatil of profession</t>
+  </si>
+  <si>
+    <t>Delete the profession from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>getActiveProfessions</t>
+  </si>
+  <si>
+    <t>fetch and return array of all active profession in the system</t>
+  </si>
+  <si>
+    <t>gerActiveSponsors</t>
+  </si>
+  <si>
+    <t>fetch and return array of all active sponsors in the system</t>
+  </si>
+  <si>
+    <t>Coupons</t>
+  </si>
+  <si>
+    <t>App\Services\Professions\Contracts\CouponsRepository</t>
+  </si>
+  <si>
+    <t>getAllCoupons</t>
+  </si>
+  <si>
+    <t>saveCouponDetail</t>
+  </si>
+  <si>
+    <t>deleteCoupon</t>
+  </si>
+  <si>
+    <t>$couponDetail</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active coupons in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>Save the coupon's detail passed in the array and return the object of updated deatil of coupon</t>
+  </si>
+  <si>
+    <t>Delete the coupon from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>saveCouponBulkDetail</t>
+  </si>
+  <si>
+    <t>Save the coupon's detail passed in the array from Coupon Bulk File and return the object of updated deatil of coupon</t>
+  </si>
+  <si>
+    <t>CMS Management</t>
+  </si>
+  <si>
+    <t>App\Services\CMS\Contracts\CMSRepository</t>
+  </si>
+  <si>
+    <t>getAllCMS</t>
+  </si>
+  <si>
+    <t>saveCMSDetail</t>
+  </si>
+  <si>
+    <t>deleteCMS</t>
+  </si>
+  <si>
+    <t>$CMSDetail</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active CMS in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>Save the CMS's detail passed in the array and return the object of updated deatil of CMS</t>
+  </si>
+  <si>
+    <t>Delete the CMS from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Email Template</t>
+  </si>
+  <si>
+    <t>App\Services\Template\Contracts\TemplateRepository</t>
+  </si>
+  <si>
+    <t>getAllTemplates</t>
+  </si>
+  <si>
+    <t>saveTemplateDetail</t>
+  </si>
+  <si>
+    <t>deleteTemplate</t>
+  </si>
+  <si>
+    <t>$TemplateDetail</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active Email Template in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>Save the Email Template's detail passed in the array and return the object of updated deatil of Email Template</t>
+  </si>
+  <si>
+    <t>Delete the Email Template from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>return array of gender in the system</t>
+  </si>
+  <si>
+    <t>Folder Name: Admin</t>
+  </si>
+  <si>
+    <t>Folder Location : proteen\app\Http\Controllers\Admin</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Class Name</t>
+  </si>
+  <si>
+    <t>TemplateManagementController</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>$TemplateRequest</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return all the active teenagers in the system </t>
+  </si>
+  <si>
+    <t>Return the array of teenager in the system for add new teenager detail</t>
+  </si>
+  <si>
+    <t>Fetch the teenager based on id passed and return the array of teenagers in the system for update the teenager</t>
+  </si>
+  <si>
+    <t>Save the teenager's detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>SponsorManagementController</t>
+  </si>
+  <si>
+    <t>$SponsorRequest</t>
+  </si>
+  <si>
+    <t>$TeenagerRequest</t>
+  </si>
+  <si>
+    <t>ParentManagementController</t>
+  </si>
+  <si>
+    <t>$ParentRequest</t>
+  </si>
+  <si>
+    <t>SchoolManagementController</t>
+  </si>
+  <si>
+    <t>$SchoolRequest</t>
+  </si>
+  <si>
+    <t>ProfessionManagementController</t>
+  </si>
+  <si>
+    <t>$ProfessionRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return all the active sponsors in the system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return all the active parents in the system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return all the active schools in the system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return all the active professions in the system </t>
+  </si>
+  <si>
+    <t>Fetch the sponsor based on id passed and return the array of sponsors in the system for update the sponsor</t>
+  </si>
+  <si>
+    <t>Return the array of sponsor in the system for add new sponsor detail</t>
+  </si>
+  <si>
+    <t>Save the sponsor's detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Return the array of parent in the system for add new parent detail</t>
+  </si>
+  <si>
+    <t>Fetch the parent based on id passed and return the array of parents in the system for update the parent</t>
+  </si>
+  <si>
+    <t>Save the parent's detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Return the array of school in the system for add new school detail</t>
+  </si>
+  <si>
+    <t>Fetch the school based on id passed and return the array of schools in the system for update the school</t>
+  </si>
+  <si>
+    <t>Save the school's detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Return the array of profession in the system for add new profession detail</t>
+  </si>
+  <si>
+    <t>Fetch the profession based on id passed and return the array of professions in the system for update the profession</t>
+  </si>
+  <si>
+    <t>Save the profession's detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>CouponManagementController</t>
+  </si>
+  <si>
+    <t>$CouponRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return all the active coupons in the system </t>
+  </si>
+  <si>
+    <t>Return the array of coupon in the system for add new coupon detail</t>
+  </si>
+  <si>
+    <t>Fetch the coupon based on id passed and return the array of coupons in the system for update the coupon</t>
+  </si>
+  <si>
+    <t>Save the coupon's detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>addbulk</t>
+  </si>
+  <si>
+    <t>Return in system for add coupon bulk file</t>
+  </si>
+  <si>
+    <t>savebulkdata</t>
+  </si>
+  <si>
+    <t>$CouponBulkRequest</t>
+  </si>
+  <si>
+    <t>Save the coupon's detail passed from Bulk upload file and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>CMSManagementController</t>
+  </si>
+  <si>
+    <t>$CMSRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return all the active CMS in the system </t>
+  </si>
+  <si>
+    <t>Return the array of CMS in the system for add new CMS detail</t>
+  </si>
+  <si>
+    <t>Fetch the CMS based on id passed and return the array of CMS in the system for update the CMS</t>
+  </si>
+  <si>
+    <t>Save the CMS detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>INt</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active Email Template in the system</t>
+  </si>
+  <si>
+    <t>Return the array of Email Template in the system for add new Email Template detail</t>
+  </si>
+  <si>
+    <t>Fetch the Email Template based on id passed and return the array of Email Templates in the system for update the Email Template</t>
+  </si>
+  <si>
+    <t>Save the Email Template's detail passed from Form and return the boolean true/false base on action performed</t>
   </si>
 </sst>
 </file>
@@ -315,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -336,17 +658,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -390,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -425,29 +736,39 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,35 +1069,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="89.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="106.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1004,13 +1325,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>23</v>
@@ -1019,21 +1340,21 @@
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>13</v>
@@ -1045,12 +1366,12 @@
         <v>16</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="C17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>19</v>
@@ -1065,7 +1386,291 @@
         <v>21</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1078,16 +1683,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="95" customWidth="1"/>
@@ -1097,34 +1702,34 @@
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
@@ -1136,16 +1741,16 @@
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1302,7 +1907,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -1317,7 +1922,7 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -1338,10 +1943,1079 @@
       </c>
       <c r="G20" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="119.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="D5" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="D37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="D39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="D40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="D44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="D45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="D46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9">
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9">
+      <c r="D50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9">
+      <c r="D51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9">
+      <c r="D52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Components.xlsx
+++ b/Components.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="204">
   <si>
     <t>Service Name</t>
   </si>
@@ -435,9 +435,6 @@
     <t>Return the array of teenager in the system for add new teenager detail</t>
   </si>
   <si>
-    <t>Fetch the teenager based on id passed and return the array of teenagers in the system for update the teenager</t>
-  </si>
-  <si>
     <t>Save the teenager's detail passed from Form and return the boolean true/false base on action performed</t>
   </si>
   <si>
@@ -480,9 +477,6 @@
     <t xml:space="preserve">Fetch and return all the active professions in the system </t>
   </si>
   <si>
-    <t>Fetch the sponsor based on id passed and return the array of sponsors in the system for update the sponsor</t>
-  </si>
-  <si>
     <t>Return the array of sponsor in the system for add new sponsor detail</t>
   </si>
   <si>
@@ -492,27 +486,18 @@
     <t>Return the array of parent in the system for add new parent detail</t>
   </si>
   <si>
-    <t>Fetch the parent based on id passed and return the array of parents in the system for update the parent</t>
-  </si>
-  <si>
     <t>Save the parent's detail passed from Form and return the boolean true/false base on action performed</t>
   </si>
   <si>
     <t>Return the array of school in the system for add new school detail</t>
   </si>
   <si>
-    <t>Fetch the school based on id passed and return the array of schools in the system for update the school</t>
-  </si>
-  <si>
     <t>Save the school's detail passed from Form and return the boolean true/false base on action performed</t>
   </si>
   <si>
     <t>Return the array of profession in the system for add new profession detail</t>
   </si>
   <si>
-    <t>Fetch the profession based on id passed and return the array of professions in the system for update the profession</t>
-  </si>
-  <si>
     <t>Save the profession's detail passed from Form and return the boolean true/false base on action performed</t>
   </si>
   <si>
@@ -528,9 +513,6 @@
     <t>Return the array of coupon in the system for add new coupon detail</t>
   </si>
   <si>
-    <t>Fetch the coupon based on id passed and return the array of coupons in the system for update the coupon</t>
-  </si>
-  <si>
     <t>Save the coupon's detail passed from Form and return the boolean true/false base on action performed</t>
   </si>
   <si>
@@ -561,15 +543,9 @@
     <t>Return the array of CMS in the system for add new CMS detail</t>
   </si>
   <si>
-    <t>Fetch the CMS based on id passed and return the array of CMS in the system for update the CMS</t>
-  </si>
-  <si>
     <t>Save the CMS detail passed from Form and return the boolean true/false base on action performed</t>
   </si>
   <si>
-    <t>INt</t>
-  </si>
-  <si>
     <t>Fetch and return all the active Email Template in the system</t>
   </si>
   <si>
@@ -580,6 +556,78 @@
   </si>
   <si>
     <t>Save the Email Template's detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Level1Activity</t>
+  </si>
+  <si>
+    <t>App\Services\Level1Activity\Contracts\Level1ActivitiesRepository</t>
+  </si>
+  <si>
+    <t>getAllLeve1Activities</t>
+  </si>
+  <si>
+    <t>saveLevel1ActivityDetail</t>
+  </si>
+  <si>
+    <t>deleteLevel1Activity</t>
+  </si>
+  <si>
+    <t>$activityDetail</t>
+  </si>
+  <si>
+    <t>$option</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active Level1 Activity in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>Save the Level1 Activities &amp; Option's detail passed in the array and return the object of updated deatil of Level1 Activity</t>
+  </si>
+  <si>
+    <t>Delete the Level1 Activity and Level1 Option  from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Level1ActivityManagementController</t>
+  </si>
+  <si>
+    <t>$Level1ActivityRequest</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active Level1 Activity in the system</t>
+  </si>
+  <si>
+    <t>Return the array of Level1 Activity in the system for add new Level1 Activity detail</t>
+  </si>
+  <si>
+    <t>Fetch the Level1 Activity based on id passed and return the Object of Level1 Activities in the system for update the Level1 Activity</t>
+  </si>
+  <si>
+    <t>Save the Level1 Activities detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the Level1 Activity from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Fetch the CMS based on id passed and return the Object of CMS in the system for update the CMS</t>
+  </si>
+  <si>
+    <t>Fetch the coupon based on id passed and return the Object of coupons in the system for update the coupon</t>
+  </si>
+  <si>
+    <t>Fetch the profession based on id passed and return the Object of professions in the system for update the profession</t>
+  </si>
+  <si>
+    <t>Fetch the school based on id passed and return the Object of schools in the system for update the school</t>
+  </si>
+  <si>
+    <t>Fetch the parent based on id passed and return the Object of parents in the system for update the parent</t>
+  </si>
+  <si>
+    <t>Fetch the sponsor based on id passed and return the Object of sponsors in the system for update the sponsor</t>
+  </si>
+  <si>
+    <t>Fetch the teenager based on id passed and return the Object of teenagers in the system for update the teenager</t>
   </si>
 </sst>
 </file>
@@ -754,9 +802,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -764,10 +809,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1069,35 +1117,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I27" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="106.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1633,7 +1681,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="3:8">
+    <row r="33" spans="1:8">
       <c r="C33" t="s">
         <v>118</v>
       </c>
@@ -1653,7 +1701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="3:8">
+    <row r="34" spans="1:8">
       <c r="C34" t="s">
         <v>119</v>
       </c>
@@ -1671,6 +1719,83 @@
       </c>
       <c r="H34" s="8" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="D38" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="C39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2013,34 +2138,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="119.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -2050,17 +2175,17 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2070,31 +2195,31 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2128,7 +2253,7 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>132</v>
       </c>
       <c r="E5" t="s">
@@ -2161,10 +2286,10 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2172,7 +2297,7 @@
         <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -2184,7 +2309,7 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2212,10 +2337,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
         <v>131</v>
@@ -2233,7 +2358,7 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2253,7 +2378,7 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2270,10 +2395,10 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2281,7 +2406,7 @@
         <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -2293,7 +2418,7 @@
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2321,10 +2446,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
         <v>131</v>
@@ -2342,7 +2467,7 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2362,7 +2487,7 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2379,10 +2504,10 @@
         <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2390,7 +2515,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -2402,7 +2527,7 @@
         <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2430,10 +2555,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
         <v>131</v>
@@ -2451,7 +2576,7 @@
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2471,7 +2596,7 @@
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2488,10 +2613,10 @@
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2499,7 +2624,7 @@
         <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -2511,7 +2636,7 @@
         <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2539,10 +2664,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
         <v>131</v>
@@ -2560,7 +2685,7 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2580,7 +2705,7 @@
         <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2597,10 +2722,10 @@
         <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2608,7 +2733,7 @@
         <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -2620,7 +2745,7 @@
         <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2648,10 +2773,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
         <v>131</v>
@@ -2669,7 +2794,7 @@
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2689,7 +2814,7 @@
         <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2706,10 +2831,10 @@
         <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I36" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2717,7 +2842,7 @@
         <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -2729,7 +2854,7 @@
         <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2754,7 +2879,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="D39" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E39" t="s">
         <v>64</v>
@@ -2769,15 +2894,15 @@
         <v>64</v>
       </c>
       <c r="I39" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="D40" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -2789,7 +2914,7 @@
         <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2797,10 +2922,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s">
         <v>131</v>
@@ -2818,7 +2943,7 @@
         <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2838,7 +2963,7 @@
         <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2855,10 +2980,10 @@
         <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I44" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2866,7 +2991,7 @@
         <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
@@ -2878,7 +3003,7 @@
         <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2927,10 +3052,10 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="D49" t="s">
         <v>132</v>
       </c>
@@ -2947,10 +3072,10 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="4:9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="D50" t="s">
         <v>133</v>
       </c>
@@ -2964,13 +3089,13 @@
         <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="D51" t="s">
         <v>134</v>
       </c>
@@ -2987,10 +3112,10 @@
         <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="D52" t="s">
         <v>136</v>
       </c>
@@ -2998,7 +3123,7 @@
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
         <v>15</v>
@@ -3008,6 +3133,115 @@
       </c>
       <c r="I52" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="D57" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="D58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Services - Repositeries" sheetId="1" r:id="rId1"/>
     <sheet name="Helpers" sheetId="2" r:id="rId2"/>
-    <sheet name="Controller" sheetId="3" r:id="rId3"/>
+    <sheet name="Admin-Controller" sheetId="3" r:id="rId3"/>
+    <sheet name="Developer-Controller" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="241">
   <si>
     <t>Service Name</t>
   </si>
@@ -628,6 +629,117 @@
   </si>
   <si>
     <t>Fetch the teenager based on id passed and return the Object of teenagers in the system for update the teenager</t>
+  </si>
+  <si>
+    <t>Folder Name: Developer</t>
+  </si>
+  <si>
+    <t>Folder Location : proteen\app\Http\Controllers\Developer</t>
+  </si>
+  <si>
+    <t>ApptitudeTypeManagementController</t>
+  </si>
+  <si>
+    <t>$ApptitudeTypeRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return all the active apptitude types in the system </t>
+  </si>
+  <si>
+    <t>Return the array of apptitude types in the system for add new apptitude type detail</t>
+  </si>
+  <si>
+    <t>Fetch the apptitude type based on id passed and return the Object of teenagers in the system for update the apptitude type</t>
+  </si>
+  <si>
+    <t>Save the apptitude type's detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the apptitude type from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>InterestTypeManagementController</t>
+  </si>
+  <si>
+    <t>$InterestTypeRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return all the active interest types in the system </t>
+  </si>
+  <si>
+    <t>Return the array of interest types in the system for add new interest type detail</t>
+  </si>
+  <si>
+    <t>Fetch the interest type based on id passed and return the Object of teenagers in the system for update the interest type</t>
+  </si>
+  <si>
+    <t>Save the interest type's detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the interest type from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>MultipleIntelligenceTypeManagementController</t>
+  </si>
+  <si>
+    <t>$MultipleIntelligenceTypeRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return all the active multiple intelligence types in the system </t>
+  </si>
+  <si>
+    <t>Return the array of multiple intelligence types in the system for add new multiple intelligence type detail</t>
+  </si>
+  <si>
+    <t>Save the multiple intelligence  type's detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the multiple intelligence  type from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Fetch the multiple intelligence type based on id passed and return the Object of teenagers in the system for update the multiple intelligence type</t>
+  </si>
+  <si>
+    <t>PersonalityTypeManagementController</t>
+  </si>
+  <si>
+    <t>$PersonalityTypeRequest</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active personality types in the system</t>
+  </si>
+  <si>
+    <t>Return the array of personality types in the system for add new personality type detail</t>
+  </si>
+  <si>
+    <t>Fetch the personality type based on id passed and return the Object of teenagers in the system for update the personality type</t>
+  </si>
+  <si>
+    <t>Save the personality  type's detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the personality  type from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>SystemLevelManagementController</t>
+  </si>
+  <si>
+    <t>$SystemLevelrequest</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active system levels in the system</t>
+  </si>
+  <si>
+    <t>Return the array of system levels in the system for add new system level detail</t>
+  </si>
+  <si>
+    <t>Fetch the system level based on id passed and return the Object of teenagers in the system for update the system level</t>
+  </si>
+  <si>
+    <t>Save the system level's detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the system level from id passed and return the boolean true/false based on action performed</t>
   </si>
 </sst>
 </file>
@@ -2140,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3252,4 +3364,633 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="134" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="D5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Components.xlsx
+++ b/Components.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Services - Repositeries" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Admin-Controller" sheetId="3" r:id="rId3"/>
     <sheet name="Developer-Controller" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="371">
   <si>
     <t>Service Name</t>
   </si>
@@ -740,6 +740,396 @@
   </si>
   <si>
     <t>Delete the system level from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Baskets</t>
+  </si>
+  <si>
+    <t>App\Services\Baskets\Contracts\BasketsRepository</t>
+  </si>
+  <si>
+    <t>getAllBaskets</t>
+  </si>
+  <si>
+    <t>saveBasketDetail</t>
+  </si>
+  <si>
+    <t>deleteBasket</t>
+  </si>
+  <si>
+    <t>$basketDetail</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active Baskets in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>FeedbackQuestions</t>
+  </si>
+  <si>
+    <t>app\Services\FeedbackQuestions\Contracts\FeedbackQuestionsRepository</t>
+  </si>
+  <si>
+    <t>getAllFeedbackQuestions</t>
+  </si>
+  <si>
+    <t>saveFeedbackQuestionsDetail</t>
+  </si>
+  <si>
+    <t>deleteFeedbackQuestion</t>
+  </si>
+  <si>
+    <t>$feedbackQuestionsDetail</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active feedbackQuestions in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>Delete the feedbackQuestions id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Save the feedbackQuestions passed in the array and return the object of updated deatil of feedbackQuestions</t>
+  </si>
+  <si>
+    <t>Save the Baskets passed in the array and return the object of updated deatil of Baskets</t>
+  </si>
+  <si>
+    <t>Delete the Bakets id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Level1CartoonIcon</t>
+  </si>
+  <si>
+    <t>app\Services\Level1CartoonIcon\Contracts\Level1CartoonIconRepository</t>
+  </si>
+  <si>
+    <t>getLeve1CartoonIcon</t>
+  </si>
+  <si>
+    <t>saveLevel1CartoonIconDetail</t>
+  </si>
+  <si>
+    <t>deleteLevel1Cartoon</t>
+  </si>
+  <si>
+    <t>$cartoonIconDetail</t>
+  </si>
+  <si>
+    <t>Delete the Level1Cartoonicons id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active Level1Cartoonicons in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>Delete the Level1Humanicons id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Save the Level1Humanicons passed in the array and return the object of updated deatil of Level1Humanicons</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active Level1Humanicons in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>Save the Level1Cartoonicons passed in the array and return the object of updated deatil of Level1Cartoonicons</t>
+  </si>
+  <si>
+    <t>$humanIconDetail</t>
+  </si>
+  <si>
+    <t>getLeve1HumanIcon</t>
+  </si>
+  <si>
+    <t>saveLevel1HumanIconDetail</t>
+  </si>
+  <si>
+    <t>deleteLevel1Human</t>
+  </si>
+  <si>
+    <t>app\Services\Level1HumanIcon\Contracts\Level1HumanIconRepository</t>
+  </si>
+  <si>
+    <t>Level1HumanIcon</t>
+  </si>
+  <si>
+    <t>Level2Activity</t>
+  </si>
+  <si>
+    <t>app\Services\Level2Activity\Contracts\Level2ActivitiesRepository</t>
+  </si>
+  <si>
+    <t>getAllLeve2Activities</t>
+  </si>
+  <si>
+    <t>saveLevel2ActivityDetail</t>
+  </si>
+  <si>
+    <t>deleteLevel2Activity</t>
+  </si>
+  <si>
+    <t>$radioval</t>
+  </si>
+  <si>
+    <t>Delete the Level2 Activity and Level1 Option  from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Save the Level2 Activities &amp; Option's detail passed in the array and return the object of updated deatil of Level2 Activity</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active Level2 Activity in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>ProfessionHeaders</t>
+  </si>
+  <si>
+    <t>app\Services\ProfessionHeaders\Contracts\ProfessionHeadersRepository</t>
+  </si>
+  <si>
+    <t>getAllProfessionHeaders</t>
+  </si>
+  <si>
+    <t>saveProfessionHeaderDetail</t>
+  </si>
+  <si>
+    <t>deleteProfessionHeader</t>
+  </si>
+  <si>
+    <t>$headerDetail</t>
+  </si>
+  <si>
+    <t>$headerTitle</t>
+  </si>
+  <si>
+    <t>$headerContent</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active professions headers in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>Save the professions header's detail, title &amp; content detail passed in the array and return the object of updated deatil of profession header</t>
+  </si>
+  <si>
+    <t>Delete the profession header id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>fetch and return array of all active baskets detail in system</t>
+  </si>
+  <si>
+    <t>getActiveBaskets</t>
+  </si>
+  <si>
+    <t>getActiveApptitude</t>
+  </si>
+  <si>
+    <t>fetch and return array of all active apptitude detail in system</t>
+  </si>
+  <si>
+    <t>getActiveCategory</t>
+  </si>
+  <si>
+    <t>getActiveCartoonCategory</t>
+  </si>
+  <si>
+    <t>getActiveInterest</t>
+  </si>
+  <si>
+    <t>fetch and return array of all active interest detail in system</t>
+  </si>
+  <si>
+    <t>fetch and return array of all active human icon category detail in system</t>
+  </si>
+  <si>
+    <t>fetch and return array of all active cartoon icon category detail in system</t>
+  </si>
+  <si>
+    <t>getActiveMultipleIntelligent</t>
+  </si>
+  <si>
+    <t>fetch and return array of all active multiple intelligent detail in system</t>
+  </si>
+  <si>
+    <t>getActivePersonality</t>
+  </si>
+  <si>
+    <t>fetch and return array of all active personality detail in system</t>
+  </si>
+  <si>
+    <t>getTeenagerUniqueId</t>
+  </si>
+  <si>
+    <t>fetch and return id of tennager in system</t>
+  </si>
+  <si>
+    <t>getActiveLevels</t>
+  </si>
+  <si>
+    <t>fetch and return array of all active levels detail in system</t>
+  </si>
+  <si>
+    <t>generateOtp</t>
+  </si>
+  <si>
+    <t>Generate an OTP Number</t>
+  </si>
+  <si>
+    <t>generateUniqueString</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Returns an unique string</t>
+  </si>
+  <si>
+    <t>AjaxController</t>
+  </si>
+  <si>
+    <t>getSponsor</t>
+  </si>
+  <si>
+    <t>$request</t>
+  </si>
+  <si>
+    <t>Fetch and return the sponser detail</t>
+  </si>
+  <si>
+    <t>generateTeenagerUniqueId</t>
+  </si>
+  <si>
+    <t>Generate the unique teenager id</t>
+  </si>
+  <si>
+    <t>BasketManagementController</t>
+  </si>
+  <si>
+    <t>$BasketRequest</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active Baskets in the system</t>
+  </si>
+  <si>
+    <t>Return the array of Baskets in the system for add new Baskets detail</t>
+  </si>
+  <si>
+    <t>Save the Baskets detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the Baskets from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Fetch the Baskets based on id passed and return the Object of Baskets in the system for update the Baskets detail</t>
+  </si>
+  <si>
+    <t>FeedbackQuestionsManagementController</t>
+  </si>
+  <si>
+    <t>$FeedbackQuestionRequest</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active FeedbackQuestions in the system</t>
+  </si>
+  <si>
+    <t>Return the array of  FeedbackQuestions in the system for add new  FeedbackQuestions detail</t>
+  </si>
+  <si>
+    <t>Fetch the  FeedbackQuestions based on id passed and return the Object of  FeedbackQuestions in the system for update the  FeedbackQuestions detail</t>
+  </si>
+  <si>
+    <t>Save the  FeedbackQuestions detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the  FeedbackQuestions from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Level1CartoonIconCategoryManagementController</t>
+  </si>
+  <si>
+    <t>Level1CartoonIconManagementController</t>
+  </si>
+  <si>
+    <t>Level1HumanIconCategoryManagementController</t>
+  </si>
+  <si>
+    <t>Level1HumanIconManagementController</t>
+  </si>
+  <si>
+    <t>ProfessionHeadersManagementController</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active profession header in the system</t>
+  </si>
+  <si>
+    <t>Return the array of  profession header in the system for add new  profession header detail</t>
+  </si>
+  <si>
+    <t>Fetch the  profession header based on id passed and return the Object of  profession header in the system for update the  profession header detail</t>
+  </si>
+  <si>
+    <t>Save the  profession header detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the  profession header from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active humanicon in the system</t>
+  </si>
+  <si>
+    <t>Return the array of  humanicon in the system for add new  humanicon detail</t>
+  </si>
+  <si>
+    <t>Fetch the  humanicon based on id passed and return the Object of  humanicon in the system for update the  humanicon detail</t>
+  </si>
+  <si>
+    <t>Save the  humanicon detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the  humanicon from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active humaniconcategory in the system</t>
+  </si>
+  <si>
+    <t>Return the array of  humaniconcategory in the system for add new  humaniconcategory detail</t>
+  </si>
+  <si>
+    <t>Fetch the  humaniconcategory based on id passed and return the Object of  humaniconcategory in the system for update the  humaniconcategory detail</t>
+  </si>
+  <si>
+    <t>Save the  humaniconcategory detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the  humaniconcategory from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active cartoonicon in the system</t>
+  </si>
+  <si>
+    <t>Return the array of  cartoonicon in the system for add new  cartoonicon detail</t>
+  </si>
+  <si>
+    <t>Fetch the  cartoonicon based on id passed and return the Object of  cartoonicon in the system for update the  cartoonicon detail</t>
+  </si>
+  <si>
+    <t>Save the  cartoonicon detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the  cartoonicon from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active CartoonIconCategory in the system</t>
+  </si>
+  <si>
+    <t>Return the array of  CartoonIconCategory in the system for add new  CartoonIconCategory detail</t>
+  </si>
+  <si>
+    <t>Fetch the  CartoonIconCategory based on id passed and return the Object of  CartoonIconCategory in the system for update the  CartoonIconCategory detail</t>
+  </si>
+  <si>
+    <t>Save the  CartoonIconCategory detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the  CartoonIconCategory from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>TeenagerManagementController</t>
   </si>
 </sst>
 </file>
@@ -1229,22 +1619,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I27" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="123.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
@@ -1910,26 +2300,467 @@
         <v>189</v>
       </c>
     </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="C42" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="C43" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="C46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="C47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="C50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="C51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>276</v>
+      </c>
+      <c r="B53" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="C54" t="s">
+        <v>273</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="C55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" t="s">
+        <v>279</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="C58" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="D59" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="D60" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="C61" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="C64" t="s">
+        <v>289</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="D65" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="D66" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="C67" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="95" customWidth="1"/>
@@ -2242,6 +3073,226 @@
         <v>125</v>
       </c>
     </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" t="s">
+        <v>311</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2250,20 +3301,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="119.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="138.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2340,10 +3392,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -3354,6 +4406,803 @@
       </c>
       <c r="I58" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>320</v>
+      </c>
+      <c r="C60" t="s">
+        <v>320</v>
+      </c>
+      <c r="D60" t="s">
+        <v>321</v>
+      </c>
+      <c r="E60" t="s">
+        <v>322</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="D61" t="s">
+        <v>324</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>326</v>
+      </c>
+      <c r="C63" t="s">
+        <v>326</v>
+      </c>
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="D65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="D66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" t="s">
+        <v>327</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="D67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>333</v>
+      </c>
+      <c r="C69" t="s">
+        <v>333</v>
+      </c>
+      <c r="D69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" t="s">
+        <v>64</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="D70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="D71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="D72" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" t="s">
+        <v>334</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="D73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>340</v>
+      </c>
+      <c r="C75" t="s">
+        <v>340</v>
+      </c>
+      <c r="D75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" t="s">
+        <v>64</v>
+      </c>
+      <c r="F75" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="D76" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" t="s">
+        <v>64</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="D77" t="s">
+        <v>133</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="D78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="D79" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>341</v>
+      </c>
+      <c r="C81" t="s">
+        <v>341</v>
+      </c>
+      <c r="D81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" t="s">
+        <v>64</v>
+      </c>
+      <c r="F81" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" t="s">
+        <v>64</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="D82" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82" t="s">
+        <v>64</v>
+      </c>
+      <c r="G82" t="s">
+        <v>64</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="D83" t="s">
+        <v>133</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="D84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="D85" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>342</v>
+      </c>
+      <c r="C87" t="s">
+        <v>342</v>
+      </c>
+      <c r="D87" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87" t="s">
+        <v>64</v>
+      </c>
+      <c r="G87" t="s">
+        <v>64</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="D88" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" t="s">
+        <v>64</v>
+      </c>
+      <c r="F88" t="s">
+        <v>64</v>
+      </c>
+      <c r="G88" t="s">
+        <v>64</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="D89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="D90" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="D91" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" t="s">
+        <v>343</v>
+      </c>
+      <c r="D93" t="s">
+        <v>131</v>
+      </c>
+      <c r="E93" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" t="s">
+        <v>64</v>
+      </c>
+      <c r="G93" t="s">
+        <v>64</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="D94" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" t="s">
+        <v>64</v>
+      </c>
+      <c r="F94" t="s">
+        <v>64</v>
+      </c>
+      <c r="G94" t="s">
+        <v>64</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="D95" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="D96" t="s">
+        <v>134</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="D97" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>344</v>
+      </c>
+      <c r="C99" t="s">
+        <v>344</v>
+      </c>
+      <c r="D99" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" t="s">
+        <v>64</v>
+      </c>
+      <c r="F99" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" t="s">
+        <v>64</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="D100" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" t="s">
+        <v>64</v>
+      </c>
+      <c r="F100" t="s">
+        <v>64</v>
+      </c>
+      <c r="G100" t="s">
+        <v>64</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="D101" t="s">
+        <v>133</v>
+      </c>
+      <c r="E101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="D102" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="D103" t="s">
+        <v>136</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3370,7 +5219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -12,12 +12,12 @@
     <sheet name="Admin-Controller" sheetId="3" r:id="rId3"/>
     <sheet name="Developer-Controller" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="376">
   <si>
     <t>Service Name</t>
   </si>
@@ -1130,6 +1130,21 @@
   </si>
   <si>
     <t>TeenagerManagementController</t>
+  </si>
+  <si>
+    <t>$Level1CartoonIconCategoryRequest</t>
+  </si>
+  <si>
+    <t>$Level1CartoonIconRequest</t>
+  </si>
+  <si>
+    <t>$Level1HumanIconCategoryRequest</t>
+  </si>
+  <si>
+    <t>$Level1HumanIconRequest</t>
+  </si>
+  <si>
+    <t>$ProfessionHeadersRequest</t>
   </si>
 </sst>
 </file>
@@ -3303,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3312,7 +3327,7 @@
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="138.28515625" customWidth="1"/>
@@ -4748,6 +4763,9 @@
       <c r="D78" t="s">
         <v>134</v>
       </c>
+      <c r="E78" t="s">
+        <v>371</v>
+      </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
@@ -4854,6 +4872,9 @@
       <c r="D84" t="s">
         <v>134</v>
       </c>
+      <c r="E84" t="s">
+        <v>372</v>
+      </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
@@ -4960,6 +4981,9 @@
       <c r="D90" t="s">
         <v>134</v>
       </c>
+      <c r="E90" t="s">
+        <v>373</v>
+      </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
@@ -5066,6 +5090,9 @@
       <c r="D96" t="s">
         <v>134</v>
       </c>
+      <c r="E96" t="s">
+        <v>374</v>
+      </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
@@ -5171,6 +5198,9 @@
     <row r="102" spans="1:9">
       <c r="D102" t="s">
         <v>134</v>
+      </c>
+      <c r="E102" t="s">
+        <v>375</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Services - Repositeries" sheetId="1" r:id="rId1"/>
@@ -1187,7 +1187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1247,11 +1247,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1319,6 +1328,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C64" sqref="C64:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1676,10 +1700,10 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -1702,6 +1726,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -1722,6 +1748,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -1742,10 +1770,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C7" t="s">
@@ -1768,6 +1796,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>36</v>
       </c>
@@ -1788,6 +1818,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>39</v>
       </c>
@@ -1808,10 +1840,10 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="A11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="s">
@@ -1834,6 +1866,8 @@
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" s="26"/>
+      <c r="B12" s="24"/>
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -1854,6 +1888,8 @@
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" s="26"/>
+      <c r="B13" s="24"/>
       <c r="C13" t="s">
         <v>45</v>
       </c>
@@ -1874,10 +1910,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="A15" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="28" t="s">
         <v>71</v>
       </c>
       <c r="C15" t="s">
@@ -1900,6 +1936,8 @@
       </c>
     </row>
     <row r="16" spans="1:8">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
       <c r="C16" t="s">
         <v>73</v>
       </c>
@@ -1920,6 +1958,8 @@
       </c>
     </row>
     <row r="17" spans="1:8">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
       <c r="C17" t="s">
         <v>74</v>
       </c>
@@ -1940,10 +1980,10 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="A19" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C19" t="s">
@@ -1966,6 +2006,8 @@
       </c>
     </row>
     <row r="20" spans="1:8">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
       <c r="C20" t="s">
         <v>85</v>
       </c>
@@ -1986,6 +2028,8 @@
       </c>
     </row>
     <row r="21" spans="1:8">
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
       <c r="C21" t="s">
         <v>86</v>
       </c>
@@ -2006,10 +2050,10 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" t="s">
+      <c r="A23" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="28" t="s">
         <v>96</v>
       </c>
       <c r="C23" t="s">
@@ -2032,6 +2076,8 @@
       </c>
     </row>
     <row r="24" spans="1:8">
+      <c r="A24" s="26"/>
+      <c r="B24" s="28"/>
       <c r="C24" t="s">
         <v>98</v>
       </c>
@@ -2052,6 +2098,8 @@
       </c>
     </row>
     <row r="25" spans="1:8">
+      <c r="A25" s="26"/>
+      <c r="B25" s="28"/>
       <c r="C25" t="s">
         <v>99</v>
       </c>
@@ -2072,6 +2120,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
+      <c r="B26" s="28"/>
       <c r="C26" t="s">
         <v>104</v>
       </c>
@@ -2092,10 +2141,10 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" t="s">
+      <c r="A28" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="28" t="s">
         <v>107</v>
       </c>
       <c r="C28" t="s">
@@ -2118,6 +2167,8 @@
       </c>
     </row>
     <row r="29" spans="1:8">
+      <c r="A29" s="26"/>
+      <c r="B29" s="28"/>
       <c r="C29" t="s">
         <v>109</v>
       </c>
@@ -2138,6 +2189,8 @@
       </c>
     </row>
     <row r="30" spans="1:8">
+      <c r="A30" s="26"/>
+      <c r="B30" s="28"/>
       <c r="C30" t="s">
         <v>110</v>
       </c>
@@ -2158,10 +2211,10 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" t="s">
+      <c r="A32" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C32" t="s">
@@ -2184,6 +2237,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
+      <c r="A33" s="26"/>
+      <c r="B33" s="28"/>
       <c r="C33" t="s">
         <v>118</v>
       </c>
@@ -2204,6 +2259,8 @@
       </c>
     </row>
     <row r="34" spans="1:8">
+      <c r="A34" s="26"/>
+      <c r="B34" s="28"/>
       <c r="C34" t="s">
         <v>119</v>
       </c>
@@ -2224,10 +2281,10 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" t="s">
+      <c r="A36" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="28" t="s">
         <v>181</v>
       </c>
       <c r="C36" t="s">
@@ -2250,7 +2307,9 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="C37" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="24" t="s">
         <v>183</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2270,6 +2329,9 @@
       </c>
     </row>
     <row r="38" spans="1:8">
+      <c r="A38" s="26"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="5" t="s">
         <v>186</v>
       </c>
@@ -2281,6 +2343,8 @@
       </c>
     </row>
     <row r="39" spans="1:8">
+      <c r="A39" s="26"/>
+      <c r="B39" s="28"/>
       <c r="C39" t="s">
         <v>184</v>
       </c>
@@ -2301,10 +2365,10 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" t="s">
+      <c r="A41" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="28" t="s">
         <v>242</v>
       </c>
       <c r="C41" t="s">
@@ -2327,6 +2391,8 @@
       </c>
     </row>
     <row r="42" spans="1:8">
+      <c r="A42" s="26"/>
+      <c r="B42" s="28"/>
       <c r="C42" t="s">
         <v>244</v>
       </c>
@@ -2347,6 +2413,8 @@
       </c>
     </row>
     <row r="43" spans="1:8">
+      <c r="A43" s="26"/>
+      <c r="B43" s="28"/>
       <c r="C43" t="s">
         <v>245</v>
       </c>
@@ -2367,10 +2435,10 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" t="s">
+      <c r="A45" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="28" t="s">
         <v>249</v>
       </c>
       <c r="C45" t="s">
@@ -2393,6 +2461,8 @@
       </c>
     </row>
     <row r="46" spans="1:8">
+      <c r="A46" s="26"/>
+      <c r="B46" s="28"/>
       <c r="C46" t="s">
         <v>251</v>
       </c>
@@ -2413,6 +2483,8 @@
       </c>
     </row>
     <row r="47" spans="1:8">
+      <c r="A47" s="26"/>
+      <c r="B47" s="28"/>
       <c r="C47" t="s">
         <v>252</v>
       </c>
@@ -2433,10 +2505,10 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="A49" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="28" t="s">
         <v>260</v>
       </c>
       <c r="C49" t="s">
@@ -2459,6 +2531,8 @@
       </c>
     </row>
     <row r="50" spans="1:8">
+      <c r="A50" s="26"/>
+      <c r="B50" s="28"/>
       <c r="C50" t="s">
         <v>262</v>
       </c>
@@ -2479,6 +2553,8 @@
       </c>
     </row>
     <row r="51" spans="1:8">
+      <c r="A51" s="26"/>
+      <c r="B51" s="28"/>
       <c r="C51" t="s">
         <v>263</v>
       </c>
@@ -2499,10 +2575,10 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" t="s">
+      <c r="A53" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="28" t="s">
         <v>275</v>
       </c>
       <c r="C53" t="s">
@@ -2525,6 +2601,8 @@
       </c>
     </row>
     <row r="54" spans="1:8">
+      <c r="A54" s="26"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
         <v>273</v>
       </c>
@@ -2545,6 +2623,8 @@
       </c>
     </row>
     <row r="55" spans="1:8">
+      <c r="A55" s="26"/>
+      <c r="B55" s="28"/>
       <c r="C55" t="s">
         <v>274</v>
       </c>
@@ -2565,10 +2645,10 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" t="s">
+      <c r="A57" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="28" t="s">
         <v>278</v>
       </c>
       <c r="C57" t="s">
@@ -2591,7 +2671,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="C58" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28" t="s">
         <v>280</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -2611,6 +2693,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
+      <c r="A59" s="26"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="5" t="s">
         <v>186</v>
       </c>
@@ -2622,6 +2707,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
+      <c r="A60" s="26"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="5" t="s">
         <v>282</v>
       </c>
@@ -2633,6 +2721,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
+      <c r="B61" s="28"/>
       <c r="C61" t="s">
         <v>281</v>
       </c>
@@ -2653,10 +2742,10 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" t="s">
+      <c r="A63" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="28" t="s">
         <v>287</v>
       </c>
       <c r="C63" t="s">
@@ -2679,7 +2768,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="C64" t="s">
+      <c r="A64" s="26"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28" t="s">
         <v>289</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -2698,7 +2789,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="65" spans="3:8">
+    <row r="65" spans="1:8">
+      <c r="A65" s="26"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
       <c r="D65" s="5" t="s">
         <v>292</v>
       </c>
@@ -2709,7 +2803,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="3:8">
+    <row r="66" spans="1:8">
+      <c r="A66" s="26"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
       <c r="D66" s="5" t="s">
         <v>293</v>
       </c>
@@ -2720,7 +2817,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="3:8">
+    <row r="67" spans="1:8">
+      <c r="A67" s="26"/>
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>290</v>
       </c>
@@ -2741,8 +2840,41 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="34">
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2751,10 +2883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2823,10 +2955,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C5" t="s">
@@ -2846,6 +2978,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>52</v>
       </c>
@@ -2857,6 +2991,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -2868,6 +3004,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -2879,6 +3017,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>55</v>
       </c>
@@ -2890,6 +3030,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>56</v>
       </c>
@@ -2901,6 +3043,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
       <c r="C11" t="s">
         <v>57</v>
       </c>
@@ -2912,6 +3056,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
       <c r="C12" t="s">
         <v>58</v>
       </c>
@@ -2923,6 +3069,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -2934,366 +3082,442 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" t="s">
+      <c r="A14" s="26"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="26"/>
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" t="s">
+      <c r="A16" s="26"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="26"/>
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="26"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="26"/>
+      <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="26"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="26"/>
+      <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="26"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="26"/>
+      <c r="B23" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="26"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="26"/>
+      <c r="B25" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
-      <c r="B26" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="26"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="26"/>
+      <c r="B27" t="s">
         <v>124</v>
       </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="26"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="26"/>
+      <c r="B29" t="s">
         <v>298</v>
       </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
-      <c r="B30" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="26"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="26"/>
+      <c r="B31" t="s">
         <v>299</v>
       </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
-      <c r="B32" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="26"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="26"/>
+      <c r="B33" t="s">
         <v>301</v>
       </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="26"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="26"/>
+      <c r="B35" t="s">
         <v>302</v>
       </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
-      <c r="B36" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="26"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="26"/>
+      <c r="B37" t="s">
         <v>303</v>
       </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
-      <c r="B38" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="26"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="26"/>
+      <c r="B39" t="s">
         <v>307</v>
       </c>
-      <c r="C38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
-      <c r="B40" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="26"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="26"/>
+      <c r="B41" t="s">
         <v>309</v>
       </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
-      <c r="B42" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="26"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="26"/>
+      <c r="B43" t="s">
         <v>311</v>
       </c>
-      <c r="C42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
-      <c r="B44" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="26"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="26"/>
+      <c r="B45" t="s">
         <v>313</v>
       </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
-      <c r="B46" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="26"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="26"/>
+      <c r="B47" t="s">
         <v>315</v>
       </c>
-      <c r="C46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" t="s">
         <v>20</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
-      <c r="B48" t="s">
+    <row r="48" spans="1:7">
+      <c r="A48" s="26"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="26"/>
+      <c r="B49" t="s">
         <v>317</v>
       </c>
-      <c r="C48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
         <v>318</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>319</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="A5:A49"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3303,8 +3527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3388,13 +3612,13 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="28" t="s">
         <v>370</v>
       </c>
       <c r="D4" t="s">
@@ -3417,6 +3641,9 @@
       </c>
     </row>
     <row r="5" spans="1:16">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="18" t="s">
         <v>132</v>
       </c>
@@ -3437,6 +3664,9 @@
       </c>
     </row>
     <row r="6" spans="1:16">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
       <c r="D6" t="s">
         <v>133</v>
       </c>
@@ -3457,6 +3687,9 @@
       </c>
     </row>
     <row r="7" spans="1:16">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
       <c r="D7" t="s">
         <v>134</v>
       </c>
@@ -3477,6 +3710,9 @@
       </c>
     </row>
     <row r="8" spans="1:16">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
       <c r="D8" t="s">
         <v>136</v>
       </c>
@@ -3497,13 +3733,13 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10">
+      <c r="A10" s="26">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="28" t="s">
         <v>140</v>
       </c>
       <c r="D10" t="s">
@@ -3526,6 +3762,9 @@
       </c>
     </row>
     <row r="11" spans="1:16">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="28"/>
       <c r="D11" t="s">
         <v>132</v>
       </c>
@@ -3546,6 +3785,9 @@
       </c>
     </row>
     <row r="12" spans="1:16">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="28"/>
       <c r="D12" t="s">
         <v>133</v>
       </c>
@@ -3566,6 +3808,9 @@
       </c>
     </row>
     <row r="13" spans="1:16">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="28"/>
       <c r="D13" t="s">
         <v>134</v>
       </c>
@@ -3586,6 +3831,9 @@
       </c>
     </row>
     <row r="14" spans="1:16">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="28"/>
       <c r="D14" t="s">
         <v>136</v>
       </c>
@@ -3606,13 +3854,13 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16">
+      <c r="A16" s="26">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="28" t="s">
         <v>143</v>
       </c>
       <c r="D16" t="s">
@@ -3635,6 +3883,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="28"/>
       <c r="D17" t="s">
         <v>132</v>
       </c>
@@ -3655,6 +3906,9 @@
       </c>
     </row>
     <row r="18" spans="1:9">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="28"/>
       <c r="D18" t="s">
         <v>133</v>
       </c>
@@ -3675,6 +3929,9 @@
       </c>
     </row>
     <row r="19" spans="1:9">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
       <c r="D19" t="s">
         <v>134</v>
       </c>
@@ -3695,6 +3952,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="28"/>
       <c r="D20" t="s">
         <v>136</v>
       </c>
@@ -3715,13 +3975,13 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22">
+      <c r="A22" s="26">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="28" t="s">
         <v>145</v>
       </c>
       <c r="D22" t="s">
@@ -3744,6 +4004,9 @@
       </c>
     </row>
     <row r="23" spans="1:9">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="28"/>
       <c r="D23" t="s">
         <v>132</v>
       </c>
@@ -3764,6 +4027,9 @@
       </c>
     </row>
     <row r="24" spans="1:9">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="28"/>
       <c r="D24" t="s">
         <v>133</v>
       </c>
@@ -3784,6 +4050,9 @@
       </c>
     </row>
     <row r="25" spans="1:9">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="28"/>
       <c r="D25" t="s">
         <v>134</v>
       </c>
@@ -3804,6 +4073,9 @@
       </c>
     </row>
     <row r="26" spans="1:9">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="28"/>
       <c r="D26" t="s">
         <v>136</v>
       </c>
@@ -3824,13 +4096,13 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28">
+      <c r="A28" s="26">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="28" t="s">
         <v>147</v>
       </c>
       <c r="D28" t="s">
@@ -3853,6 +4125,9 @@
       </c>
     </row>
     <row r="29" spans="1:9">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
       <c r="D29" t="s">
         <v>132</v>
       </c>
@@ -3873,6 +4148,9 @@
       </c>
     </row>
     <row r="30" spans="1:9">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="28"/>
       <c r="D30" t="s">
         <v>133</v>
       </c>
@@ -3893,6 +4171,9 @@
       </c>
     </row>
     <row r="31" spans="1:9">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="28"/>
       <c r="D31" t="s">
         <v>134</v>
       </c>
@@ -3913,6 +4194,9 @@
       </c>
     </row>
     <row r="32" spans="1:9">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="28"/>
       <c r="D32" t="s">
         <v>136</v>
       </c>
@@ -3933,13 +4217,13 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34">
+      <c r="A34" s="26">
         <v>6</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="28" t="s">
         <v>161</v>
       </c>
       <c r="D34" t="s">
@@ -3962,6 +4246,9 @@
       </c>
     </row>
     <row r="35" spans="1:9">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="28"/>
       <c r="D35" t="s">
         <v>132</v>
       </c>
@@ -3982,6 +4269,9 @@
       </c>
     </row>
     <row r="36" spans="1:9">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="28"/>
       <c r="D36" t="s">
         <v>133</v>
       </c>
@@ -4002,6 +4292,9 @@
       </c>
     </row>
     <row r="37" spans="1:9">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="28"/>
       <c r="D37" t="s">
         <v>134</v>
       </c>
@@ -4022,6 +4315,9 @@
       </c>
     </row>
     <row r="38" spans="1:9">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="28"/>
       <c r="D38" t="s">
         <v>136</v>
       </c>
@@ -4042,6 +4338,9 @@
       </c>
     </row>
     <row r="39" spans="1:9">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="28"/>
       <c r="D39" t="s">
         <v>166</v>
       </c>
@@ -4062,6 +4361,9 @@
       </c>
     </row>
     <row r="40" spans="1:9">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="28"/>
       <c r="D40" t="s">
         <v>168</v>
       </c>
@@ -4082,13 +4384,13 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42">
+      <c r="A42" s="26">
         <v>7</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="28" t="s">
         <v>171</v>
       </c>
       <c r="D42" t="s">
@@ -4111,6 +4413,9 @@
       </c>
     </row>
     <row r="43" spans="1:9">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="28"/>
       <c r="D43" t="s">
         <v>132</v>
       </c>
@@ -4131,6 +4436,9 @@
       </c>
     </row>
     <row r="44" spans="1:9">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="28"/>
       <c r="D44" t="s">
         <v>133</v>
       </c>
@@ -4151,6 +4459,9 @@
       </c>
     </row>
     <row r="45" spans="1:9">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="28"/>
       <c r="D45" t="s">
         <v>134</v>
       </c>
@@ -4171,6 +4482,9 @@
       </c>
     </row>
     <row r="46" spans="1:9">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="28"/>
       <c r="D46" t="s">
         <v>136</v>
       </c>
@@ -4191,13 +4505,13 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48">
+      <c r="A48" s="26">
         <v>8</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="28" t="s">
         <v>130</v>
       </c>
       <c r="D48" t="s">
@@ -4220,6 +4534,9 @@
       </c>
     </row>
     <row r="49" spans="1:9">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="28"/>
       <c r="D49" t="s">
         <v>132</v>
       </c>
@@ -4240,6 +4557,9 @@
       </c>
     </row>
     <row r="50" spans="1:9">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="28"/>
       <c r="D50" t="s">
         <v>133</v>
       </c>
@@ -4260,6 +4580,9 @@
       </c>
     </row>
     <row r="51" spans="1:9">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="28"/>
       <c r="D51" t="s">
         <v>134</v>
       </c>
@@ -4280,6 +4603,9 @@
       </c>
     </row>
     <row r="52" spans="1:9">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="28"/>
       <c r="D52" t="s">
         <v>136</v>
       </c>
@@ -4300,13 +4626,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54">
+      <c r="A54" s="26">
         <v>9</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="28" t="s">
         <v>190</v>
       </c>
       <c r="D54" t="s">
@@ -4329,6 +4655,9 @@
       </c>
     </row>
     <row r="55" spans="1:9">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="28"/>
       <c r="D55" t="s">
         <v>132</v>
       </c>
@@ -4349,6 +4678,9 @@
       </c>
     </row>
     <row r="56" spans="1:9">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="28"/>
       <c r="D56" t="s">
         <v>133</v>
       </c>
@@ -4369,6 +4701,9 @@
       </c>
     </row>
     <row r="57" spans="1:9">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="28"/>
       <c r="D57" t="s">
         <v>134</v>
       </c>
@@ -4389,6 +4724,9 @@
       </c>
     </row>
     <row r="58" spans="1:9">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="28"/>
       <c r="D58" t="s">
         <v>136</v>
       </c>
@@ -4409,13 +4747,13 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60">
+      <c r="A60" s="26">
         <v>10</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="28" t="s">
         <v>320</v>
       </c>
       <c r="D60" t="s">
@@ -4438,6 +4776,9 @@
       </c>
     </row>
     <row r="61" spans="1:9">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="28"/>
       <c r="D61" t="s">
         <v>324</v>
       </c>
@@ -4458,13 +4799,13 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63">
+      <c r="A63" s="26">
         <v>11</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="28" t="s">
         <v>326</v>
       </c>
       <c r="D63" t="s">
@@ -4487,6 +4828,9 @@
       </c>
     </row>
     <row r="64" spans="1:9">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="28"/>
       <c r="D64" t="s">
         <v>132</v>
       </c>
@@ -4507,6 +4851,9 @@
       </c>
     </row>
     <row r="65" spans="1:9">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="28"/>
       <c r="D65" t="s">
         <v>133</v>
       </c>
@@ -4527,6 +4874,9 @@
       </c>
     </row>
     <row r="66" spans="1:9">
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="28"/>
       <c r="D66" t="s">
         <v>134</v>
       </c>
@@ -4547,6 +4897,9 @@
       </c>
     </row>
     <row r="67" spans="1:9">
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="28"/>
       <c r="D67" t="s">
         <v>136</v>
       </c>
@@ -4567,13 +4920,13 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69">
+      <c r="A69" s="26">
         <v>12</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="28" t="s">
         <v>333</v>
       </c>
       <c r="D69" t="s">
@@ -4596,6 +4949,9 @@
       </c>
     </row>
     <row r="70" spans="1:9">
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="28"/>
       <c r="D70" t="s">
         <v>132</v>
       </c>
@@ -4616,6 +4972,9 @@
       </c>
     </row>
     <row r="71" spans="1:9">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="28"/>
       <c r="D71" t="s">
         <v>133</v>
       </c>
@@ -4636,6 +4995,9 @@
       </c>
     </row>
     <row r="72" spans="1:9">
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="28"/>
       <c r="D72" t="s">
         <v>134</v>
       </c>
@@ -4656,6 +5018,9 @@
       </c>
     </row>
     <row r="73" spans="1:9">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="28"/>
       <c r="D73" t="s">
         <v>136</v>
       </c>
@@ -4676,13 +5041,13 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="A75" s="26">
+        <v>13</v>
+      </c>
+      <c r="B75" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="28" t="s">
         <v>340</v>
       </c>
       <c r="D75" t="s">
@@ -4705,6 +5070,9 @@
       </c>
     </row>
     <row r="76" spans="1:9">
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="28"/>
       <c r="D76" t="s">
         <v>132</v>
       </c>
@@ -4725,6 +5093,9 @@
       </c>
     </row>
     <row r="77" spans="1:9">
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="28"/>
       <c r="D77" t="s">
         <v>133</v>
       </c>
@@ -4745,6 +5116,9 @@
       </c>
     </row>
     <row r="78" spans="1:9">
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="28"/>
       <c r="D78" t="s">
         <v>134</v>
       </c>
@@ -4762,6 +5136,9 @@
       </c>
     </row>
     <row r="79" spans="1:9">
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="28"/>
       <c r="D79" t="s">
         <v>136</v>
       </c>
@@ -4782,13 +5159,13 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81">
+      <c r="A81" s="26">
         <v>14</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="28" t="s">
         <v>341</v>
       </c>
       <c r="D81" t="s">
@@ -4811,6 +5188,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="28"/>
       <c r="D82" t="s">
         <v>132</v>
       </c>
@@ -4831,6 +5211,9 @@
       </c>
     </row>
     <row r="83" spans="1:9">
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="28"/>
       <c r="D83" t="s">
         <v>133</v>
       </c>
@@ -4851,6 +5234,9 @@
       </c>
     </row>
     <row r="84" spans="1:9">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="28"/>
       <c r="D84" t="s">
         <v>134</v>
       </c>
@@ -4868,6 +5254,9 @@
       </c>
     </row>
     <row r="85" spans="1:9">
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="28"/>
       <c r="D85" t="s">
         <v>136</v>
       </c>
@@ -4888,13 +5277,13 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87">
-        <v>15</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="A87" s="26">
+        <v>15</v>
+      </c>
+      <c r="B87" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="28" t="s">
         <v>342</v>
       </c>
       <c r="D87" t="s">
@@ -4917,6 +5306,9 @@
       </c>
     </row>
     <row r="88" spans="1:9">
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="28"/>
       <c r="D88" t="s">
         <v>132</v>
       </c>
@@ -4937,6 +5329,9 @@
       </c>
     </row>
     <row r="89" spans="1:9">
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="28"/>
       <c r="D89" t="s">
         <v>133</v>
       </c>
@@ -4957,6 +5352,9 @@
       </c>
     </row>
     <row r="90" spans="1:9">
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="28"/>
       <c r="D90" t="s">
         <v>134</v>
       </c>
@@ -4974,6 +5372,9 @@
       </c>
     </row>
     <row r="91" spans="1:9">
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="28"/>
       <c r="D91" t="s">
         <v>136</v>
       </c>
@@ -4994,13 +5395,13 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93">
+      <c r="A93" s="26">
         <v>16</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="28" t="s">
         <v>343</v>
       </c>
       <c r="D93" t="s">
@@ -5023,6 +5424,9 @@
       </c>
     </row>
     <row r="94" spans="1:9">
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="28"/>
       <c r="D94" t="s">
         <v>132</v>
       </c>
@@ -5043,6 +5447,9 @@
       </c>
     </row>
     <row r="95" spans="1:9">
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="28"/>
       <c r="D95" t="s">
         <v>133</v>
       </c>
@@ -5063,6 +5470,9 @@
       </c>
     </row>
     <row r="96" spans="1:9">
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="28"/>
       <c r="D96" t="s">
         <v>134</v>
       </c>
@@ -5080,6 +5490,9 @@
       </c>
     </row>
     <row r="97" spans="1:9">
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>136</v>
       </c>
@@ -5100,13 +5513,13 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99">
+      <c r="A99" s="26">
         <v>17</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="28" t="s">
         <v>344</v>
       </c>
       <c r="D99" t="s">
@@ -5129,6 +5542,9 @@
       </c>
     </row>
     <row r="100" spans="1:9">
+      <c r="A100" s="26"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>132</v>
       </c>
@@ -5149,6 +5565,9 @@
       </c>
     </row>
     <row r="101" spans="1:9">
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>133</v>
       </c>
@@ -5169,6 +5588,9 @@
       </c>
     </row>
     <row r="102" spans="1:9">
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>134</v>
       </c>
@@ -5186,6 +5608,9 @@
       </c>
     </row>
     <row r="103" spans="1:9">
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>136</v>
       </c>
@@ -5206,9 +5631,60 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="53">
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C16:C20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5219,8 +5695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5291,13 +5767,13 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="28" t="s">
         <v>206</v>
       </c>
       <c r="D4" t="s">
@@ -5320,6 +5796,9 @@
       </c>
     </row>
     <row r="5" spans="1:9">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="18" t="s">
         <v>132</v>
       </c>
@@ -5340,6 +5819,9 @@
       </c>
     </row>
     <row r="6" spans="1:9">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
       <c r="D6" t="s">
         <v>133</v>
       </c>
@@ -5360,6 +5842,9 @@
       </c>
     </row>
     <row r="7" spans="1:9">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
       <c r="D7" t="s">
         <v>134</v>
       </c>
@@ -5380,6 +5865,8 @@
       </c>
     </row>
     <row r="8" spans="1:9">
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
       <c r="D8" t="s">
         <v>136</v>
       </c>
@@ -5400,13 +5887,13 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10">
+      <c r="A10" s="26">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="28" t="s">
         <v>213</v>
       </c>
       <c r="D10" t="s">
@@ -5429,6 +5916,9 @@
       </c>
     </row>
     <row r="11" spans="1:9">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="28"/>
       <c r="D11" t="s">
         <v>132</v>
       </c>
@@ -5449,6 +5939,9 @@
       </c>
     </row>
     <row r="12" spans="1:9">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="28"/>
       <c r="D12" t="s">
         <v>133</v>
       </c>
@@ -5469,6 +5962,9 @@
       </c>
     </row>
     <row r="13" spans="1:9">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="28"/>
       <c r="D13" t="s">
         <v>134</v>
       </c>
@@ -5489,6 +5985,9 @@
       </c>
     </row>
     <row r="14" spans="1:9">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="28"/>
       <c r="D14" t="s">
         <v>136</v>
       </c>
@@ -5509,13 +6008,13 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16">
+      <c r="A16" s="26">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="28" t="s">
         <v>220</v>
       </c>
       <c r="D16" t="s">
@@ -5538,6 +6037,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="28"/>
       <c r="D17" t="s">
         <v>132</v>
       </c>
@@ -5558,6 +6060,9 @@
       </c>
     </row>
     <row r="18" spans="1:9">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="28"/>
       <c r="D18" t="s">
         <v>133</v>
       </c>
@@ -5578,6 +6083,9 @@
       </c>
     </row>
     <row r="19" spans="1:9">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
       <c r="D19" t="s">
         <v>134</v>
       </c>
@@ -5598,6 +6106,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="28"/>
       <c r="D20" t="s">
         <v>136</v>
       </c>
@@ -5618,13 +6129,13 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22">
+      <c r="A22" s="26">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="28" t="s">
         <v>227</v>
       </c>
       <c r="D22" t="s">
@@ -5647,6 +6158,9 @@
       </c>
     </row>
     <row r="23" spans="1:9">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="28"/>
       <c r="D23" t="s">
         <v>132</v>
       </c>
@@ -5667,6 +6181,9 @@
       </c>
     </row>
     <row r="24" spans="1:9">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="28"/>
       <c r="D24" t="s">
         <v>133</v>
       </c>
@@ -5687,6 +6204,9 @@
       </c>
     </row>
     <row r="25" spans="1:9">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="28"/>
       <c r="D25" t="s">
         <v>134</v>
       </c>
@@ -5707,6 +6227,9 @@
       </c>
     </row>
     <row r="26" spans="1:9">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="28"/>
       <c r="D26" t="s">
         <v>136</v>
       </c>
@@ -5727,13 +6250,13 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28">
+      <c r="A28" s="26">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="28" t="s">
         <v>234</v>
       </c>
       <c r="D28" t="s">
@@ -5756,6 +6279,9 @@
       </c>
     </row>
     <row r="29" spans="1:9">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
       <c r="D29" t="s">
         <v>132</v>
       </c>
@@ -5776,6 +6302,9 @@
       </c>
     </row>
     <row r="30" spans="1:9">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="28"/>
       <c r="D30" t="s">
         <v>133</v>
       </c>
@@ -5796,6 +6325,9 @@
       </c>
     </row>
     <row r="31" spans="1:9">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="28"/>
       <c r="D31" t="s">
         <v>134</v>
       </c>
@@ -5816,6 +6348,9 @@
       </c>
     </row>
     <row r="32" spans="1:9">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="28"/>
       <c r="D32" t="s">
         <v>136</v>
       </c>
@@ -5836,9 +6371,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="17">
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Services - Repositeries" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="376">
   <si>
     <t>Service Name</t>
   </si>
@@ -1130,6 +1130,21 @@
   </si>
   <si>
     <t>TeenagerManagementController</t>
+  </si>
+  <si>
+    <t>$ProfessionHeadersRequest</t>
+  </si>
+  <si>
+    <t>$Level1HumanIconRequest</t>
+  </si>
+  <si>
+    <t>$Level1HumanIconCategoryRequest</t>
+  </si>
+  <si>
+    <t>$Level1CartoonIconRequest</t>
+  </si>
+  <si>
+    <t>$Level1CartoonIconCategoryRequest</t>
   </si>
 </sst>
 </file>
@@ -1320,29 +1335,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1662,16 +1677,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1703,7 +1718,7 @@
       <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -1726,8 +1741,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="26"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="22"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -1748,8 +1763,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -1770,10 +1785,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C7" t="s">
@@ -1796,8 +1811,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" t="s">
         <v>36</v>
       </c>
@@ -1818,8 +1833,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" t="s">
         <v>39</v>
       </c>
@@ -1840,10 +1855,10 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="s">
@@ -1866,8 +1881,8 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="26"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="21"/>
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -1888,8 +1903,8 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="26"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" t="s">
         <v>45</v>
       </c>
@@ -1910,10 +1925,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C15" t="s">
@@ -1936,8 +1951,8 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" t="s">
         <v>73</v>
       </c>
@@ -1958,8 +1973,8 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" t="s">
         <v>74</v>
       </c>
@@ -1980,10 +1995,10 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C19" t="s">
@@ -2006,8 +2021,8 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" t="s">
         <v>85</v>
       </c>
@@ -2028,8 +2043,8 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="26"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" t="s">
         <v>86</v>
       </c>
@@ -2050,10 +2065,10 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="22" t="s">
         <v>96</v>
       </c>
       <c r="C23" t="s">
@@ -2076,8 +2091,8 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="26"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" t="s">
         <v>98</v>
       </c>
@@ -2098,8 +2113,8 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="26"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="22"/>
       <c r="C25" t="s">
         <v>99</v>
       </c>
@@ -2120,7 +2135,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="28"/>
+      <c r="B26" s="22"/>
       <c r="C26" t="s">
         <v>104</v>
       </c>
@@ -2141,10 +2156,10 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="22" t="s">
         <v>107</v>
       </c>
       <c r="C28" t="s">
@@ -2167,8 +2182,8 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="26"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="22"/>
       <c r="C29" t="s">
         <v>109</v>
       </c>
@@ -2189,8 +2204,8 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="26"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="22"/>
       <c r="C30" t="s">
         <v>110</v>
       </c>
@@ -2211,10 +2226,10 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C32" t="s">
@@ -2237,8 +2252,8 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="26"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="22"/>
       <c r="C33" t="s">
         <v>118</v>
       </c>
@@ -2259,8 +2274,8 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="26"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="22"/>
       <c r="C34" t="s">
         <v>119</v>
       </c>
@@ -2281,10 +2296,10 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C36" t="s">
@@ -2307,9 +2322,9 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="26"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="24" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="21" t="s">
         <v>183</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2329,9 +2344,9 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="26"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="24"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="5" t="s">
         <v>186</v>
       </c>
@@ -2343,8 +2358,8 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="26"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="22"/>
       <c r="C39" t="s">
         <v>184</v>
       </c>
@@ -2365,10 +2380,10 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="22" t="s">
         <v>242</v>
       </c>
       <c r="C41" t="s">
@@ -2391,8 +2406,8 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="26"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="22"/>
       <c r="C42" t="s">
         <v>244</v>
       </c>
@@ -2413,8 +2428,8 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="26"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="22"/>
       <c r="C43" t="s">
         <v>245</v>
       </c>
@@ -2435,10 +2450,10 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="22" t="s">
         <v>249</v>
       </c>
       <c r="C45" t="s">
@@ -2461,8 +2476,8 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="26"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="22"/>
       <c r="C46" t="s">
         <v>251</v>
       </c>
@@ -2483,8 +2498,8 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="26"/>
-      <c r="B47" s="28"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="22"/>
       <c r="C47" t="s">
         <v>252</v>
       </c>
@@ -2505,10 +2520,10 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="22" t="s">
         <v>260</v>
       </c>
       <c r="C49" t="s">
@@ -2531,8 +2546,8 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="26"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="22"/>
       <c r="C50" t="s">
         <v>262</v>
       </c>
@@ -2553,8 +2568,8 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="26"/>
-      <c r="B51" s="28"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="22"/>
       <c r="C51" t="s">
         <v>263</v>
       </c>
@@ -2575,10 +2590,10 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="22" t="s">
         <v>275</v>
       </c>
       <c r="C53" t="s">
@@ -2601,8 +2616,8 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="26"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="22"/>
       <c r="C54" t="s">
         <v>273</v>
       </c>
@@ -2623,8 +2638,8 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="26"/>
-      <c r="B55" s="28"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="22"/>
       <c r="C55" t="s">
         <v>274</v>
       </c>
@@ -2645,10 +2660,10 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="22" t="s">
         <v>278</v>
       </c>
       <c r="C57" t="s">
@@ -2671,9 +2686,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="26"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22" t="s">
         <v>280</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -2693,9 +2708,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="26"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="5" t="s">
         <v>186</v>
       </c>
@@ -2707,9 +2722,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="26"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="5" t="s">
         <v>282</v>
       </c>
@@ -2721,7 +2736,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="B61" s="28"/>
+      <c r="B61" s="22"/>
       <c r="C61" t="s">
         <v>281</v>
       </c>
@@ -2742,10 +2757,10 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="22" t="s">
         <v>287</v>
       </c>
       <c r="C63" t="s">
@@ -2768,9 +2783,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="26"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28" t="s">
+      <c r="A64" s="23"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22" t="s">
         <v>289</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -2790,9 +2805,9 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="26"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="5" t="s">
         <v>292</v>
       </c>
@@ -2804,9 +2819,9 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="26"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="5" t="s">
         <v>293</v>
       </c>
@@ -2818,8 +2833,8 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="26"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="22"/>
       <c r="C67" t="s">
         <v>290</v>
       </c>
@@ -2841,31 +2856,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A19:A21"/>
@@ -2875,6 +2865,31 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B63:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2958,7 +2973,7 @@
       <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C5" t="s">
@@ -2978,8 +2993,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="22"/>
       <c r="C6" t="s">
         <v>52</v>
       </c>
@@ -2991,8 +3006,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="22"/>
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -3004,8 +3019,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -3017,8 +3032,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" t="s">
         <v>55</v>
       </c>
@@ -3030,8 +3045,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" t="s">
         <v>56</v>
       </c>
@@ -3043,8 +3058,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="22"/>
       <c r="C11" t="s">
         <v>57</v>
       </c>
@@ -3056,8 +3071,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
       <c r="C12" t="s">
         <v>58</v>
       </c>
@@ -3069,8 +3084,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="26"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="22"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -3082,10 +3097,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="26"/>
+      <c r="A14" s="23"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26"/>
+      <c r="A15" s="23"/>
       <c r="B15" t="s">
         <v>59</v>
       </c>
@@ -3106,10 +3121,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="26"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26"/>
+      <c r="A17" s="23"/>
       <c r="B17" t="s">
         <v>60</v>
       </c>
@@ -3130,10 +3145,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="26"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="26"/>
+      <c r="A19" s="23"/>
       <c r="B19" t="s">
         <v>80</v>
       </c>
@@ -3154,10 +3169,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="26"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="26"/>
+      <c r="A21" s="23"/>
       <c r="B21" t="s">
         <v>62</v>
       </c>
@@ -3178,10 +3193,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="26"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="26"/>
+      <c r="A23" s="23"/>
       <c r="B23" t="s">
         <v>91</v>
       </c>
@@ -3202,10 +3217,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="26"/>
+      <c r="A24" s="23"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="26"/>
+      <c r="A25" s="23"/>
       <c r="B25" t="s">
         <v>93</v>
       </c>
@@ -3226,10 +3241,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="26"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="26"/>
+      <c r="A27" s="23"/>
       <c r="B27" t="s">
         <v>124</v>
       </c>
@@ -3250,10 +3265,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="26"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="26"/>
+      <c r="A29" s="23"/>
       <c r="B29" t="s">
         <v>298</v>
       </c>
@@ -3274,10 +3289,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="26"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="26"/>
+      <c r="A31" s="23"/>
       <c r="B31" t="s">
         <v>299</v>
       </c>
@@ -3298,10 +3313,10 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="26"/>
+      <c r="A32" s="23"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="26"/>
+      <c r="A33" s="23"/>
       <c r="B33" t="s">
         <v>301</v>
       </c>
@@ -3322,10 +3337,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="26"/>
+      <c r="A34" s="23"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="26"/>
+      <c r="A35" s="23"/>
       <c r="B35" t="s">
         <v>302</v>
       </c>
@@ -3346,10 +3361,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="26"/>
+      <c r="A36" s="23"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="26"/>
+      <c r="A37" s="23"/>
       <c r="B37" t="s">
         <v>303</v>
       </c>
@@ -3370,10 +3385,10 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="26"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="26"/>
+      <c r="A39" s="23"/>
       <c r="B39" t="s">
         <v>307</v>
       </c>
@@ -3394,10 +3409,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="26"/>
+      <c r="A40" s="23"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="26"/>
+      <c r="A41" s="23"/>
       <c r="B41" t="s">
         <v>309</v>
       </c>
@@ -3418,10 +3433,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="26"/>
+      <c r="A42" s="23"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="26"/>
+      <c r="A43" s="23"/>
       <c r="B43" t="s">
         <v>311</v>
       </c>
@@ -3442,10 +3457,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="26"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="26"/>
+      <c r="A45" s="23"/>
       <c r="B45" t="s">
         <v>313</v>
       </c>
@@ -3466,10 +3481,10 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="26"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="26"/>
+      <c r="A47" s="23"/>
       <c r="B47" t="s">
         <v>315</v>
       </c>
@@ -3490,10 +3505,10 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="26"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="26"/>
+      <c r="A49" s="23"/>
       <c r="B49" t="s">
         <v>317</v>
       </c>
@@ -3527,8 +3542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:A103"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3536,24 +3551,24 @@
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="138.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -3563,17 +3578,17 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -3612,13 +3627,13 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="26">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="22" t="s">
         <v>370</v>
       </c>
       <c r="D4" t="s">
@@ -3641,9 +3656,9 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="28"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="18" t="s">
         <v>132</v>
       </c>
@@ -3664,9 +3679,9 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22"/>
       <c r="D6" t="s">
         <v>133</v>
       </c>
@@ -3687,9 +3702,9 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="22"/>
       <c r="D7" t="s">
         <v>134</v>
       </c>
@@ -3710,9 +3725,9 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="22"/>
       <c r="D8" t="s">
         <v>136</v>
       </c>
@@ -3733,13 +3748,13 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="26">
+      <c r="A10" s="23">
         <v>2</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="22" t="s">
         <v>140</v>
       </c>
       <c r="D10" t="s">
@@ -3762,9 +3777,9 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22"/>
       <c r="D11" t="s">
         <v>132</v>
       </c>
@@ -3785,9 +3800,9 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="22"/>
       <c r="D12" t="s">
         <v>133</v>
       </c>
@@ -3808,9 +3823,9 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="22"/>
       <c r="D13" t="s">
         <v>134</v>
       </c>
@@ -3831,9 +3846,9 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" t="s">
         <v>136</v>
       </c>
@@ -3854,13 +3869,13 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="26">
+      <c r="A16" s="23">
         <v>3</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D16" t="s">
@@ -3883,9 +3898,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="22"/>
       <c r="D17" t="s">
         <v>132</v>
       </c>
@@ -3906,9 +3921,9 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
       <c r="D18" t="s">
         <v>133</v>
       </c>
@@ -3929,9 +3944,9 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="22"/>
       <c r="D19" t="s">
         <v>134</v>
       </c>
@@ -3952,9 +3967,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="22"/>
       <c r="D20" t="s">
         <v>136</v>
       </c>
@@ -3975,13 +3990,13 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="26">
+      <c r="A22" s="23">
         <v>4</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="22" t="s">
         <v>145</v>
       </c>
       <c r="D22" t="s">
@@ -4004,9 +4019,9 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="22"/>
       <c r="D23" t="s">
         <v>132</v>
       </c>
@@ -4027,9 +4042,9 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="28"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="22"/>
       <c r="D24" t="s">
         <v>133</v>
       </c>
@@ -4050,9 +4065,9 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="22"/>
       <c r="D25" t="s">
         <v>134</v>
       </c>
@@ -4073,9 +4088,9 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="28"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="22"/>
       <c r="D26" t="s">
         <v>136</v>
       </c>
@@ -4096,13 +4111,13 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="26">
+      <c r="A28" s="23">
         <v>5</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="22" t="s">
         <v>147</v>
       </c>
       <c r="D28" t="s">
@@ -4125,9 +4140,9 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
       <c r="D29" t="s">
         <v>132</v>
       </c>
@@ -4148,9 +4163,9 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22"/>
       <c r="D30" t="s">
         <v>133</v>
       </c>
@@ -4171,9 +4186,9 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22"/>
       <c r="D31" t="s">
         <v>134</v>
       </c>
@@ -4194,9 +4209,9 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22"/>
       <c r="D32" t="s">
         <v>136</v>
       </c>
@@ -4217,13 +4232,13 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="26">
+      <c r="A34" s="23">
         <v>6</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="22" t="s">
         <v>161</v>
       </c>
       <c r="D34" t="s">
@@ -4246,9 +4261,9 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="22"/>
       <c r="D35" t="s">
         <v>132</v>
       </c>
@@ -4269,9 +4284,9 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="28"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="22"/>
       <c r="D36" t="s">
         <v>133</v>
       </c>
@@ -4292,9 +4307,9 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="22"/>
       <c r="D37" t="s">
         <v>134</v>
       </c>
@@ -4315,9 +4330,9 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="28"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="22"/>
       <c r="D38" t="s">
         <v>136</v>
       </c>
@@ -4338,9 +4353,9 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="28"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="22"/>
       <c r="D39" t="s">
         <v>166</v>
       </c>
@@ -4361,9 +4376,9 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="28"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="22"/>
       <c r="D40" t="s">
         <v>168</v>
       </c>
@@ -4384,13 +4399,13 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="26">
+      <c r="A42" s="23">
         <v>7</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="22" t="s">
         <v>171</v>
       </c>
       <c r="D42" t="s">
@@ -4413,9 +4428,9 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="28"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="22"/>
       <c r="D43" t="s">
         <v>132</v>
       </c>
@@ -4436,9 +4451,9 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="28"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="22"/>
       <c r="D44" t="s">
         <v>133</v>
       </c>
@@ -4459,9 +4474,9 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="28"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="22"/>
       <c r="D45" t="s">
         <v>134</v>
       </c>
@@ -4482,9 +4497,9 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="28"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="22"/>
       <c r="D46" t="s">
         <v>136</v>
       </c>
@@ -4505,13 +4520,13 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="26">
+      <c r="A48" s="23">
         <v>8</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="22" t="s">
         <v>130</v>
       </c>
       <c r="D48" t="s">
@@ -4534,9 +4549,9 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="28"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="22"/>
       <c r="D49" t="s">
         <v>132</v>
       </c>
@@ -4557,9 +4572,9 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="28"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="22"/>
       <c r="D50" t="s">
         <v>133</v>
       </c>
@@ -4580,9 +4595,9 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="28"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22"/>
       <c r="D51" t="s">
         <v>134</v>
       </c>
@@ -4603,9 +4618,9 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="28"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="22"/>
       <c r="D52" t="s">
         <v>136</v>
       </c>
@@ -4626,13 +4641,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="26">
+      <c r="A54" s="23">
         <v>9</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="22" t="s">
         <v>190</v>
       </c>
       <c r="D54" t="s">
@@ -4655,9 +4670,9 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="22"/>
       <c r="D55" t="s">
         <v>132</v>
       </c>
@@ -4678,9 +4693,9 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="28"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="22"/>
       <c r="D56" t="s">
         <v>133</v>
       </c>
@@ -4701,9 +4716,9 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="28"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22"/>
       <c r="D57" t="s">
         <v>134</v>
       </c>
@@ -4724,9 +4739,9 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="28"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="22"/>
       <c r="D58" t="s">
         <v>136</v>
       </c>
@@ -4747,13 +4762,13 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="26">
+      <c r="A60" s="23">
         <v>10</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="22" t="s">
         <v>320</v>
       </c>
       <c r="D60" t="s">
@@ -4776,9 +4791,9 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="28"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="22"/>
       <c r="D61" t="s">
         <v>324</v>
       </c>
@@ -4799,13 +4814,13 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="26">
+      <c r="A63" s="23">
         <v>11</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="22" t="s">
         <v>326</v>
       </c>
       <c r="D63" t="s">
@@ -4828,9 +4843,9 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="28"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="22"/>
       <c r="D64" t="s">
         <v>132</v>
       </c>
@@ -4851,9 +4866,9 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="28"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="22"/>
       <c r="D65" t="s">
         <v>133</v>
       </c>
@@ -4874,9 +4889,9 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="28"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="22"/>
       <c r="D66" t="s">
         <v>134</v>
       </c>
@@ -4897,9 +4912,9 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="28"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="22"/>
       <c r="D67" t="s">
         <v>136</v>
       </c>
@@ -4920,13 +4935,13 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="26">
+      <c r="A69" s="23">
         <v>12</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="22" t="s">
         <v>333</v>
       </c>
       <c r="D69" t="s">
@@ -4949,9 +4964,9 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="28"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="22"/>
       <c r="D70" t="s">
         <v>132</v>
       </c>
@@ -4972,9 +4987,9 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="28"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="22"/>
       <c r="D71" t="s">
         <v>133</v>
       </c>
@@ -4995,9 +5010,9 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="28"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="22"/>
       <c r="D72" t="s">
         <v>134</v>
       </c>
@@ -5018,9 +5033,9 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="28"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="22"/>
       <c r="D73" t="s">
         <v>136</v>
       </c>
@@ -5041,13 +5056,13 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="26">
-        <v>13</v>
-      </c>
-      <c r="B75" s="26" t="s">
+      <c r="A75" s="23">
+        <v>13</v>
+      </c>
+      <c r="B75" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="22" t="s">
         <v>340</v>
       </c>
       <c r="D75" t="s">
@@ -5070,9 +5085,9 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="28"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="22"/>
       <c r="D76" t="s">
         <v>132</v>
       </c>
@@ -5093,9 +5108,9 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="28"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="22"/>
       <c r="D77" t="s">
         <v>133</v>
       </c>
@@ -5116,12 +5131,15 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="28"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="22"/>
       <c r="D78" t="s">
         <v>134</v>
       </c>
+      <c r="E78" t="s">
+        <v>375</v>
+      </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
@@ -5136,9 +5154,9 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="28"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="22"/>
       <c r="D79" t="s">
         <v>136</v>
       </c>
@@ -5159,13 +5177,13 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="26">
+      <c r="A81" s="23">
         <v>14</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="22" t="s">
         <v>341</v>
       </c>
       <c r="D81" t="s">
@@ -5188,9 +5206,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="28"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="22"/>
       <c r="D82" t="s">
         <v>132</v>
       </c>
@@ -5211,9 +5229,9 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="28"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="22"/>
       <c r="D83" t="s">
         <v>133</v>
       </c>
@@ -5234,12 +5252,15 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="28"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="22"/>
       <c r="D84" t="s">
         <v>134</v>
       </c>
+      <c r="E84" t="s">
+        <v>374</v>
+      </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
@@ -5254,9 +5275,9 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="28"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="22"/>
       <c r="D85" t="s">
         <v>136</v>
       </c>
@@ -5277,13 +5298,13 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="26">
-        <v>15</v>
-      </c>
-      <c r="B87" s="26" t="s">
+      <c r="A87" s="23">
+        <v>15</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="22" t="s">
         <v>342</v>
       </c>
       <c r="D87" t="s">
@@ -5306,9 +5327,9 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="28"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="22"/>
       <c r="D88" t="s">
         <v>132</v>
       </c>
@@ -5329,9 +5350,9 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="28"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="22"/>
       <c r="D89" t="s">
         <v>133</v>
       </c>
@@ -5352,12 +5373,15 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="28"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="22"/>
       <c r="D90" t="s">
         <v>134</v>
       </c>
+      <c r="E90" t="s">
+        <v>373</v>
+      </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
@@ -5372,9 +5396,9 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="28"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="22"/>
       <c r="D91" t="s">
         <v>136</v>
       </c>
@@ -5395,13 +5419,13 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="26">
+      <c r="A93" s="23">
         <v>16</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="22" t="s">
         <v>343</v>
       </c>
       <c r="D93" t="s">
@@ -5424,9 +5448,9 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="28"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="22"/>
       <c r="D94" t="s">
         <v>132</v>
       </c>
@@ -5447,9 +5471,9 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="28"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="22"/>
       <c r="D95" t="s">
         <v>133</v>
       </c>
@@ -5470,12 +5494,15 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="28"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="22"/>
       <c r="D96" t="s">
         <v>134</v>
       </c>
+      <c r="E96" t="s">
+        <v>372</v>
+      </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
@@ -5490,9 +5517,9 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="28"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="22"/>
       <c r="D97" t="s">
         <v>136</v>
       </c>
@@ -5513,13 +5540,13 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="26">
+      <c r="A99" s="23">
         <v>17</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="22" t="s">
         <v>344</v>
       </c>
       <c r="D99" t="s">
@@ -5542,9 +5569,9 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="26"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="28"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="22"/>
       <c r="D100" t="s">
         <v>132</v>
       </c>
@@ -5565,9 +5592,9 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="28"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="22"/>
       <c r="D101" t="s">
         <v>133</v>
       </c>
@@ -5588,12 +5615,15 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="26"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="28"/>
+      <c r="A102" s="23"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="22"/>
       <c r="D102" t="s">
         <v>134</v>
       </c>
+      <c r="E102" t="s">
+        <v>371</v>
+      </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
@@ -5608,9 +5638,9 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="26"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="28"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="22"/>
       <c r="D103" t="s">
         <v>136</v>
       </c>
@@ -5632,28 +5662,29 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="A60:A61"/>
@@ -5662,29 +5693,28 @@
     <mergeCell ref="B54:B58"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B93:B97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5695,7 +5725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
@@ -5712,30 +5742,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="19" t="s">
@@ -5767,13 +5797,13 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="26">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="22" t="s">
         <v>206</v>
       </c>
       <c r="D4" t="s">
@@ -5796,9 +5826,9 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="28"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="18" t="s">
         <v>132</v>
       </c>
@@ -5819,9 +5849,9 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22"/>
       <c r="D6" t="s">
         <v>133</v>
       </c>
@@ -5842,9 +5872,9 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="22"/>
       <c r="D7" t="s">
         <v>134</v>
       </c>
@@ -5865,8 +5895,8 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="26"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="22"/>
       <c r="D8" t="s">
         <v>136</v>
       </c>
@@ -5887,13 +5917,13 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="26">
+      <c r="A10" s="23">
         <v>2</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="22" t="s">
         <v>213</v>
       </c>
       <c r="D10" t="s">
@@ -5916,9 +5946,9 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22"/>
       <c r="D11" t="s">
         <v>132</v>
       </c>
@@ -5939,9 +5969,9 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="22"/>
       <c r="D12" t="s">
         <v>133</v>
       </c>
@@ -5962,9 +5992,9 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="22"/>
       <c r="D13" t="s">
         <v>134</v>
       </c>
@@ -5985,9 +6015,9 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" t="s">
         <v>136</v>
       </c>
@@ -6008,13 +6038,13 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="26">
+      <c r="A16" s="23">
         <v>3</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="22" t="s">
         <v>220</v>
       </c>
       <c r="D16" t="s">
@@ -6037,9 +6067,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="22"/>
       <c r="D17" t="s">
         <v>132</v>
       </c>
@@ -6060,9 +6090,9 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
       <c r="D18" t="s">
         <v>133</v>
       </c>
@@ -6083,9 +6113,9 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="22"/>
       <c r="D19" t="s">
         <v>134</v>
       </c>
@@ -6106,9 +6136,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="22"/>
       <c r="D20" t="s">
         <v>136</v>
       </c>
@@ -6129,13 +6159,13 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="26">
+      <c r="A22" s="23">
         <v>4</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="22" t="s">
         <v>227</v>
       </c>
       <c r="D22" t="s">
@@ -6158,9 +6188,9 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="22"/>
       <c r="D23" t="s">
         <v>132</v>
       </c>
@@ -6181,9 +6211,9 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="28"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="22"/>
       <c r="D24" t="s">
         <v>133</v>
       </c>
@@ -6204,9 +6234,9 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="22"/>
       <c r="D25" t="s">
         <v>134</v>
       </c>
@@ -6227,9 +6257,9 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="28"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="22"/>
       <c r="D26" t="s">
         <v>136</v>
       </c>
@@ -6250,13 +6280,13 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="26">
+      <c r="A28" s="23">
         <v>5</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="22" t="s">
         <v>234</v>
       </c>
       <c r="D28" t="s">
@@ -6279,9 +6309,9 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
       <c r="D29" t="s">
         <v>132</v>
       </c>
@@ -6302,9 +6332,9 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22"/>
       <c r="D30" t="s">
         <v>133</v>
       </c>
@@ -6325,9 +6355,9 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22"/>
       <c r="D31" t="s">
         <v>134</v>
       </c>
@@ -6348,9 +6378,9 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22"/>
       <c r="D32" t="s">
         <v>136</v>
       </c>
@@ -6372,6 +6402,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A10:A14"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -6388,7 +6419,6 @@
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B10:B14"/>
-    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Services - Repositeries" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Admin-Controller" sheetId="3" r:id="rId3"/>
     <sheet name="Developer-Controller" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="459">
   <si>
     <t>Service Name</t>
   </si>
@@ -1145,6 +1145,255 @@
   </si>
   <si>
     <t>$Level1CartoonIconCategoryRequest</t>
+  </si>
+  <si>
+    <t>checkActiveEmailExist</t>
+  </si>
+  <si>
+    <t>$email</t>
+  </si>
+  <si>
+    <t>checkActivePhoneExist</t>
+  </si>
+  <si>
+    <t>$phone</t>
+  </si>
+  <si>
+    <t>updateTeenagerDeviceToken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $deviceDetail</t>
+  </si>
+  <si>
+    <t>getTeenagerByMobile</t>
+  </si>
+  <si>
+    <t>$mobile</t>
+  </si>
+  <si>
+    <t>getTeenagerById</t>
+  </si>
+  <si>
+    <t>saveTeenagerSponserId</t>
+  </si>
+  <si>
+    <t>$teenagerId</t>
+  </si>
+  <si>
+    <t>$sponsorId</t>
+  </si>
+  <si>
+    <t>getTeenagerDetailByEmailId</t>
+  </si>
+  <si>
+    <t>saveTeenagerPasswordResetRequest</t>
+  </si>
+  <si>
+    <t>getTeenagerBySocialId</t>
+  </si>
+  <si>
+    <t>verifyOTPAgainstTeenagerId</t>
+  </si>
+  <si>
+    <t>getCountryIdByName</t>
+  </si>
+  <si>
+    <t>getSchoolIdByName</t>
+  </si>
+  <si>
+    <t>$teenager_id</t>
+  </si>
+  <si>
+    <t>$socialId</t>
+  </si>
+  <si>
+    <t>$socialProvider</t>
+  </si>
+  <si>
+    <t>$OTP</t>
+  </si>
+  <si>
+    <t>checkCurrentPasswordAgainst</t>
+  </si>
+  <si>
+    <t>$country</t>
+  </si>
+  <si>
+    <t>$school</t>
+  </si>
+  <si>
+    <t>Check active teenager's Email id is exist or not  and return boolean value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$id </t>
+  </si>
+  <si>
+    <t>Check active teenager's phone number is exist or not  and return boolean value</t>
+  </si>
+  <si>
+    <t>$userid</t>
+  </si>
+  <si>
+    <t>Update Device token of teenager and return object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return array of all the active teenagers by phone number </t>
+  </si>
+  <si>
+    <t>Fetch and return object of all active teenagers by id</t>
+  </si>
+  <si>
+    <t>Save the teenager's sponser in array  and return object  of sponsor by teenager id and sponsor id</t>
+  </si>
+  <si>
+    <t>deleteTeenagerSponsors</t>
+  </si>
+  <si>
+    <t>Delete the sponsors detail by teenager id and return boolean true/false</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active teenager's detail in array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return country detail in object  by country id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch and return school detail in object  by school id </t>
+  </si>
+  <si>
+    <t>getApprovedSponsors</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Fetch and return all the approved sponsors in array</t>
+  </si>
+  <si>
+    <t>editToApprovedSponser</t>
+  </si>
+  <si>
+    <t>update sponsor to approved sponsor by id and return in array</t>
+  </si>
+  <si>
+    <t>editToApprovedSchool</t>
+  </si>
+  <si>
+    <t>update school to approved school by id and return in array</t>
+  </si>
+  <si>
+    <t>getLeve1HumanIconCategory</t>
+  </si>
+  <si>
+    <t>saveLevel1HumanIconCategoryDetail</t>
+  </si>
+  <si>
+    <t>$humanIconCategoryDetail</t>
+  </si>
+  <si>
+    <t>deleteLevel1HumanIconCategory</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active Level1Humanicons category in the system based on search parameters array passed</t>
+  </si>
+  <si>
+    <t>Delete the Level1Humanicons category id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Save the Level1Humanicons category passed in the array and return the object of updated deatil of Level1Humanicons category</t>
+  </si>
+  <si>
+    <t>getTeenagerPhotoById</t>
+  </si>
+  <si>
+    <t>Fetch photo of teenager by id and return in array</t>
+  </si>
+  <si>
+    <t>Save the details of password reset request and return boolean true/false</t>
+  </si>
+  <si>
+    <t>Fetch detail of teenager by social id and social provider and return array</t>
+  </si>
+  <si>
+    <t>Varify OTP of teenager by id and return boolean true/false</t>
+  </si>
+  <si>
+    <t>check current password of teenager by id and OTP and return boolean true/false</t>
+  </si>
+  <si>
+    <t>open new screen for upload file for add teenagers in bulk</t>
+  </si>
+  <si>
+    <t>Store array of bulk teenagers  in the session for add  teenagers detail in bulk</t>
+  </si>
+  <si>
+    <t>mapteenager</t>
+  </si>
+  <si>
+    <t>Return the array of mapping  teenager detail for add teenager in bulk</t>
+  </si>
+  <si>
+    <t>insertMapTeenager</t>
+  </si>
+  <si>
+    <t>Save the teenager's detail by upload csv file and return the true/false based on action performed</t>
+  </si>
+  <si>
+    <t>downloadExcel</t>
+  </si>
+  <si>
+    <t>Download/export  csv file for teenager details which are uploaded by csv file</t>
+  </si>
+  <si>
+    <t>editToApproved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change sponsor to approved sponsor by id and return the boolean true/false </t>
+  </si>
+  <si>
+    <t>Level2ActivityManagementController</t>
+  </si>
+  <si>
+    <t>$Level2ActivityRequest</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active Level2 Activity in the system</t>
+  </si>
+  <si>
+    <t>Return the array of Level2 Activity in the system for add new Level2 Activity detail</t>
+  </si>
+  <si>
+    <t>Fetch the Level2 Activity based on id passed and return the Object of Level2 Activities in the system for update the Level1 Activity</t>
+  </si>
+  <si>
+    <t>Save the Level2 Activities detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Delete the Level2 Activity from id passed and return the boolean true/false based on action performed</t>
+  </si>
+  <si>
+    <t>Return active profession</t>
+  </si>
+  <si>
+    <t>generateRandomPassword</t>
+  </si>
+  <si>
+    <t>Return random generate password</t>
+  </si>
+  <si>
+    <t>getTeenagerOriginalImageUrl</t>
+  </si>
+  <si>
+    <t>$teenagerPhoto</t>
+  </si>
+  <si>
+    <t>Return url of teenager original image</t>
+  </si>
+  <si>
+    <t>getTeenagerThumbImageUrl</t>
+  </si>
+  <si>
+    <t>Return url of teenager thumb image</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1344,6 +1593,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1358,6 +1625,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1658,17 +1928,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C64" sqref="C64:C66"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="71.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -1677,16 +1947,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1715,10 +1985,10 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -1741,8 +2011,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="23"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -1763,8 +2033,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="23"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -1784,129 +2054,146 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
+      <c r="A7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="23"/>
       <c r="B8" s="22"/>
-      <c r="C8" t="s">
-        <v>36</v>
+      <c r="C8" s="28" t="s">
+        <v>378</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
+        <v>379</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>38</v>
+      <c r="G8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="23"/>
       <c r="B9" s="22"/>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="5" t="s">
-        <v>19</v>
+        <v>402</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
+      <c r="A11" s="23"/>
+      <c r="B11" s="22"/>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>404</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="23"/>
-      <c r="B12" s="21"/>
-      <c r="C12" t="s">
-        <v>44</v>
+      <c r="B12" s="22"/>
+      <c r="C12" s="21" t="s">
+        <v>382</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>383</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>49</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="23"/>
-      <c r="B13" s="21"/>
-      <c r="C13" t="s">
-        <v>45</v>
+      <c r="B13" s="22"/>
+      <c r="C13" s="21" t="s">
+        <v>384</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>19</v>
@@ -1918,135 +2205,159 @@
         <v>15</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>48</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
+      <c r="A15" s="23"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="5" t="s">
-        <v>23</v>
+        <v>387</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>77</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="23"/>
       <c r="B16" s="22"/>
-      <c r="C16" t="s">
-        <v>73</v>
+      <c r="C16" s="22" t="s">
+        <v>409</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>75</v>
+        <v>386</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>78</v>
+        <v>21</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="23"/>
       <c r="B17" s="22"/>
-      <c r="C17" t="s">
-        <v>74</v>
+      <c r="C17" s="21" t="s">
+        <v>388</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>79</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
+      <c r="A19" s="23"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="29" t="s">
+        <v>390</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>23</v>
+        <v>395</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="23"/>
       <c r="B20" s="22"/>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
+      <c r="C20" s="29"/>
       <c r="D20" s="5" t="s">
-        <v>87</v>
+        <v>396</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="23"/>
-      <c r="B21" s="22"/>
-      <c r="C21" t="s">
-        <v>86</v>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26" t="s">
+        <v>428</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>19</v>
@@ -2058,68 +2369,78 @@
         <v>15</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>90</v>
+      <c r="H22" s="28" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
+      <c r="A23" s="23"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="5" t="s">
-        <v>23</v>
+        <v>397</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="23"/>
       <c r="B24" s="22"/>
-      <c r="C24" t="s">
-        <v>98</v>
+      <c r="C24" s="29" t="s">
+        <v>398</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>100</v>
+        <v>386</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>102</v>
+      <c r="G24" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="23"/>
       <c r="B25" s="22"/>
-      <c r="C25" t="s">
-        <v>99</v>
-      </c>
+      <c r="C25" s="29"/>
       <c r="D25" s="5" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>20</v>
@@ -2127,23 +2448,20 @@
       <c r="F25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>103</v>
-      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8">
+      <c r="A26" s="23"/>
       <c r="B26" s="22"/>
-      <c r="C26" t="s">
-        <v>104</v>
+      <c r="C26" s="21" t="s">
+        <v>392</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>15</v>
@@ -2152,452 +2470,477 @@
         <v>16</v>
       </c>
       <c r="H26" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="23"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" t="s">
+        <v>414</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" t="s">
+        <v>417</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="27"/>
+      <c r="B36" s="29"/>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" t="s">
+        <v>419</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" s="28"/>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="23" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B53" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C53" t="s">
         <v>108</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="23"/>
-      <c r="B29" s="22"/>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="23"/>
-      <c r="B30" s="22"/>
-      <c r="C30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="23"/>
-      <c r="B33" s="22"/>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="23"/>
-      <c r="B34" s="22"/>
-      <c r="C34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="23"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="23"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="23"/>
-      <c r="B39" s="22"/>
-      <c r="C39" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C41" t="s">
-        <v>243</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="23"/>
-      <c r="B42" s="22"/>
-      <c r="C42" t="s">
-        <v>244</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="23"/>
-      <c r="B43" s="22"/>
-      <c r="C43" t="s">
-        <v>245</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C45" t="s">
-        <v>250</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="23"/>
-      <c r="B46" s="22"/>
-      <c r="C46" t="s">
-        <v>251</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="23"/>
-      <c r="B47" s="22"/>
-      <c r="C47" t="s">
-        <v>252</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="C49" t="s">
-        <v>261</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="23"/>
-      <c r="B50" s="22"/>
-      <c r="C50" t="s">
-        <v>262</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="23"/>
-      <c r="B51" s="22"/>
-      <c r="C51" t="s">
-        <v>263</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="C53" t="s">
-        <v>272</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>23</v>
@@ -2612,17 +2955,17 @@
         <v>13</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>269</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="23"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
-        <v>273</v>
+        <v>109</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>13</v>
@@ -2634,14 +2977,14 @@
         <v>16</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>268</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="23"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
       <c r="C55" t="s">
-        <v>274</v>
+        <v>110</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>19</v>
@@ -2656,18 +2999,18 @@
         <v>21</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>278</v>
+      <c r="A57" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>279</v>
+        <v>117</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>23</v>
@@ -2682,17 +3025,17 @@
         <v>13</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="23"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22" t="s">
-        <v>280</v>
+      <c r="A58" s="27"/>
+      <c r="B58" s="28"/>
+      <c r="C58" t="s">
+        <v>118</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>13</v>
@@ -2704,192 +3047,719 @@
         <v>16</v>
       </c>
       <c r="H58" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="27"/>
+      <c r="B64" s="28"/>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="27"/>
+      <c r="B67" s="28"/>
+      <c r="C67" t="s">
+        <v>244</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="27"/>
+      <c r="B68" s="28"/>
+      <c r="C68" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" t="s">
+        <v>250</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="27"/>
+      <c r="B71" s="28"/>
+      <c r="C71" t="s">
+        <v>251</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="27"/>
+      <c r="B72" s="28"/>
+      <c r="C72" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" t="s">
+        <v>262</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="27"/>
+      <c r="B76" s="28"/>
+      <c r="C76" t="s">
+        <v>263</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="27"/>
+      <c r="B79" s="28"/>
+      <c r="C79" t="s">
+        <v>273</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="27"/>
+      <c r="B80" s="28"/>
+      <c r="C80" t="s">
+        <v>274</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="24"/>
+      <c r="B81" s="25"/>
+      <c r="C81" t="s">
+        <v>421</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="24"/>
+      <c r="B82" s="25"/>
+      <c r="C82" t="s">
+        <v>422</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="24"/>
+      <c r="B83" s="25"/>
+      <c r="C83" t="s">
+        <v>424</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C85" t="s">
+        <v>279</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="27"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="28" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="23"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="5" t="s">
+    <row r="87" spans="1:8">
+      <c r="A87" s="27"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="23"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="5" t="s">
+      <c r="E87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="27"/>
+      <c r="H87" s="28"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="27"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" s="22"/>
-      <c r="C61" t="s">
+      <c r="F88" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="27"/>
+      <c r="H88" s="28"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="27"/>
+      <c r="B89" s="28"/>
+      <c r="C89" t="s">
         <v>281</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="6" t="s">
+      <c r="E89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H89" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="23" t="s">
+    <row r="91" spans="1:8">
+      <c r="A91" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B91" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C91" t="s">
         <v>288</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="6" t="s">
+      <c r="E91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="8" t="s">
+      <c r="G91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="23"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22" t="s">
+    <row r="92" spans="1:8">
+      <c r="A92" s="27"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="6" t="s">
+      <c r="E92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H92" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="23"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="5" t="s">
+    <row r="93" spans="1:8">
+      <c r="A93" s="27"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="23"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="5" t="s">
+      <c r="E93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="27"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="23"/>
-      <c r="B67" s="22"/>
-      <c r="C67" t="s">
+      <c r="E94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="27"/>
+      <c r="B95" s="28"/>
+      <c r="C95" t="s">
         <v>290</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="6" t="s">
+      <c r="E95" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H95" s="8" t="s">
         <v>296</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A25"/>
+  <mergeCells count="56">
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2898,15 +3768,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -2970,10 +3840,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C5" t="s">
@@ -2993,8 +3863,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="23"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>52</v>
       </c>
@@ -3006,8 +3876,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="23"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>53</v>
       </c>
@@ -3019,8 +3889,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="23"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -3032,8 +3902,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>55</v>
       </c>
@@ -3045,8 +3915,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>56</v>
       </c>
@@ -3058,8 +3928,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="23"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="28"/>
       <c r="C11" t="s">
         <v>57</v>
       </c>
@@ -3071,8 +3941,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="28"/>
       <c r="C12" t="s">
         <v>58</v>
       </c>
@@ -3084,8 +3954,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="28"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -3097,10 +3967,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="23"/>
+      <c r="A14" s="35"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="23"/>
+      <c r="A15" s="35"/>
       <c r="B15" t="s">
         <v>59</v>
       </c>
@@ -3121,10 +3991,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="23"/>
+      <c r="A16" s="35"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="23"/>
+      <c r="A17" s="35"/>
       <c r="B17" t="s">
         <v>60</v>
       </c>
@@ -3145,10 +4015,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="23"/>
+      <c r="A18" s="35"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="23"/>
+      <c r="A19" s="35"/>
       <c r="B19" t="s">
         <v>80</v>
       </c>
@@ -3169,10 +4039,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="23"/>
+      <c r="A20" s="35"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23"/>
+      <c r="A21" s="35"/>
       <c r="B21" t="s">
         <v>62</v>
       </c>
@@ -3193,10 +4063,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="23"/>
+      <c r="A22" s="35"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="23"/>
+      <c r="A23" s="35"/>
       <c r="B23" t="s">
         <v>91</v>
       </c>
@@ -3217,10 +4087,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="23"/>
+      <c r="A24" s="35"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="23"/>
+      <c r="A25" s="35"/>
       <c r="B25" t="s">
         <v>93</v>
       </c>
@@ -3241,10 +4111,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="23"/>
+      <c r="A26" s="35"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="23"/>
+      <c r="A27" s="35"/>
       <c r="B27" t="s">
         <v>124</v>
       </c>
@@ -3265,10 +4135,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="23"/>
+      <c r="A28" s="35"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="23"/>
+      <c r="A29" s="35"/>
       <c r="B29" t="s">
         <v>298</v>
       </c>
@@ -3289,10 +4159,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="23"/>
+      <c r="A30" s="35"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23"/>
+      <c r="A31" s="35"/>
       <c r="B31" t="s">
         <v>299</v>
       </c>
@@ -3313,10 +4183,10 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="23"/>
+      <c r="A32" s="35"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="23"/>
+      <c r="A33" s="35"/>
       <c r="B33" t="s">
         <v>301</v>
       </c>
@@ -3337,10 +4207,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="23"/>
+      <c r="A34" s="35"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="23"/>
+      <c r="A35" s="35"/>
       <c r="B35" t="s">
         <v>302</v>
       </c>
@@ -3361,10 +4231,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="23"/>
+      <c r="A36" s="35"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="23"/>
+      <c r="A37" s="35"/>
       <c r="B37" t="s">
         <v>303</v>
       </c>
@@ -3385,10 +4255,10 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="23"/>
+      <c r="A38" s="35"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="23"/>
+      <c r="A39" s="35"/>
       <c r="B39" t="s">
         <v>307</v>
       </c>
@@ -3409,10 +4279,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="23"/>
+      <c r="A40" s="35"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="23"/>
+      <c r="A41" s="35"/>
       <c r="B41" t="s">
         <v>309</v>
       </c>
@@ -3433,10 +4303,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="23"/>
+      <c r="A42" s="35"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="23"/>
+      <c r="A43" s="35"/>
       <c r="B43" t="s">
         <v>311</v>
       </c>
@@ -3457,10 +4327,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="23"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="23"/>
+      <c r="A45" s="35"/>
       <c r="B45" t="s">
         <v>313</v>
       </c>
@@ -3481,10 +4351,10 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="23"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="23"/>
+      <c r="A47" s="35"/>
       <c r="B47" t="s">
         <v>315</v>
       </c>
@@ -3505,10 +4375,10 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="23"/>
+      <c r="A48" s="35"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="23"/>
+      <c r="A49" s="35"/>
       <c r="B49" t="s">
         <v>317</v>
       </c>
@@ -3526,12 +4396,108 @@
       </c>
       <c r="G49" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="35"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="35"/>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="35"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="35"/>
+      <c r="B53" t="s">
+        <v>452</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" t="s">
+        <v>318</v>
+      </c>
+      <c r="G53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="35"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="35"/>
+      <c r="B55" t="s">
+        <v>454</v>
+      </c>
+      <c r="C55" t="s">
+        <v>455</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>318</v>
+      </c>
+      <c r="G55" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="35"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="35"/>
+      <c r="B57" t="s">
+        <v>457</v>
+      </c>
+      <c r="C57" t="s">
+        <v>455</v>
+      </c>
+      <c r="D57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>318</v>
+      </c>
+      <c r="G57" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:B13"/>
-    <mergeCell ref="A5:A49"/>
+    <mergeCell ref="A5:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3540,10 +4506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3558,17 +4524,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -3578,17 +4544,17 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -3627,13 +4593,13 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="23">
+      <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="28" t="s">
         <v>370</v>
       </c>
       <c r="D4" t="s">
@@ -3656,9 +4622,9 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="18" t="s">
         <v>132</v>
       </c>
@@ -3679,9 +4645,9 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" t="s">
         <v>133</v>
       </c>
@@ -3702,9 +4668,9 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" t="s">
         <v>134</v>
       </c>
@@ -3725,9 +4691,9 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" t="s">
         <v>136</v>
       </c>
@@ -3747,214 +4713,236 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>434</v>
+      </c>
+    </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="23">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" t="s">
+        <v>438</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>415</v>
+      </c>
+      <c r="I13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="27">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B15" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C15" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D15" t="s">
         <v>131</v>
       </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="22"/>
-      <c r="D11" t="s">
+    <row r="16" spans="1:16">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" t="s">
         <v>132</v>
       </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="22"/>
-      <c r="D12" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" t="s">
         <v>133</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
         <v>16</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="22"/>
-      <c r="D13" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" t="s">
         <v>134</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E18" t="s">
         <v>141</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
         <v>21</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="22"/>
-      <c r="D14" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" t="s">
         <v>136</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E19" t="s">
         <v>19</v>
       </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="23">
-        <v>3</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="22"/>
-      <c r="D17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="22"/>
-      <c r="D18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="22"/>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>144</v>
-      </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
@@ -3963,21 +4951,21 @@
         <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="28"/>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>442</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
@@ -3986,18 +4974,18 @@
         <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="23">
-        <v>4</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>145</v>
+      <c r="A22" s="27">
+        <v>3</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="D22" t="s">
         <v>131</v>
@@ -4015,13 +5003,13 @@
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="22"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" t="s">
         <v>132</v>
       </c>
@@ -4038,13 +5026,13 @@
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
       <c r="D24" t="s">
         <v>133</v>
       </c>
@@ -4061,18 +5049,18 @@
         <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="22"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
       <c r="D25" t="s">
         <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -4084,13 +5072,13 @@
         <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="22"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" t="s">
         <v>136</v>
       </c>
@@ -4107,18 +5095,18 @@
         <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="23">
-        <v>5</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>147</v>
+      <c r="A28" s="27">
+        <v>4</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="D28" t="s">
         <v>131</v>
@@ -4136,13 +5124,13 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="22"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
       <c r="D29" t="s">
         <v>132</v>
       </c>
@@ -4159,13 +5147,13 @@
         <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
       <c r="D30" t="s">
         <v>133</v>
       </c>
@@ -4182,18 +5170,18 @@
         <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" t="s">
         <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -4205,13 +5193,13 @@
         <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
       <c r="D32" t="s">
         <v>136</v>
       </c>
@@ -4228,18 +5216,18 @@
         <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="23">
-        <v>6</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>161</v>
+      <c r="A34" s="27">
+        <v>5</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="D34" t="s">
         <v>131</v>
@@ -4257,13 +5245,13 @@
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="22"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" t="s">
         <v>132</v>
       </c>
@@ -4280,13 +5268,13 @@
         <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="22"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
       <c r="D36" t="s">
         <v>133</v>
       </c>
@@ -4303,18 +5291,18 @@
         <v>16</v>
       </c>
       <c r="I36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="22"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
       <c r="D37" t="s">
         <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -4326,13 +5314,13 @@
         <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="22"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
       <c r="D38" t="s">
         <v>136</v>
       </c>
@@ -4349,113 +5337,113 @@
         <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="22"/>
-      <c r="D39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="22"/>
+      <c r="A40" s="27">
+        <v>6</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>161</v>
+      </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="F40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
         <v>16</v>
       </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
         <v>21</v>
       </c>
-      <c r="I40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="23">
-        <v>7</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="22"/>
-      <c r="D43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
       <c r="I43" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="22"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
@@ -4467,47 +5455,47 @@
         <v>15</v>
       </c>
       <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" t="s">
         <v>16</v>
-      </c>
-      <c r="I44" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="22"/>
-      <c r="D45" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" t="s">
-        <v>172</v>
-      </c>
-      <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="22"/>
-      <c r="D46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" t="s">
-        <v>20</v>
       </c>
       <c r="G46" t="s">
         <v>15</v>
@@ -4516,18 +5504,18 @@
         <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="23">
-        <v>8</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>130</v>
+      <c r="A48" s="27">
+        <v>7</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>171</v>
       </c>
       <c r="D48" t="s">
         <v>131</v>
@@ -4545,13 +5533,13 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="22"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
       <c r="D49" t="s">
         <v>132</v>
       </c>
@@ -4568,13 +5556,13 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
       <c r="D50" t="s">
         <v>133</v>
       </c>
@@ -4591,18 +5579,18 @@
         <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
       <c r="D51" t="s">
         <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -4614,13 +5602,13 @@
         <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
       <c r="D52" t="s">
         <v>136</v>
       </c>
@@ -4637,18 +5625,18 @@
         <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="23">
-        <v>9</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>190</v>
+      <c r="A54" s="27">
+        <v>8</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="D54" t="s">
         <v>131</v>
@@ -4666,13 +5654,13 @@
         <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="22"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
       <c r="D55" t="s">
         <v>132</v>
       </c>
@@ -4689,13 +5677,13 @@
         <v>13</v>
       </c>
       <c r="I55" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="22"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
       <c r="D56" t="s">
         <v>133</v>
       </c>
@@ -4712,18 +5700,18 @@
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="22"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
       <c r="D57" t="s">
         <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -4735,13 +5723,13 @@
         <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="22"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
       <c r="D58" t="s">
         <v>136</v>
       </c>
@@ -4758,145 +5746,145 @@
         <v>21</v>
       </c>
       <c r="I58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="27">
+        <v>9</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" t="s">
+        <v>64</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="28"/>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="23">
+    <row r="66" spans="1:9">
+      <c r="A66" s="27">
         <v>10</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B66" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C66" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D66" t="s">
         <v>321</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E66" t="s">
         <v>322</v>
-      </c>
-      <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="22"/>
-      <c r="D61" t="s">
-        <v>324</v>
-      </c>
-      <c r="E61" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="23">
-        <v>11</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="D63" t="s">
-        <v>131</v>
-      </c>
-      <c r="E63" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" t="s">
-        <v>64</v>
-      </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="22"/>
-      <c r="D64" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" t="s">
-        <v>64</v>
-      </c>
-      <c r="F64" t="s">
-        <v>64</v>
-      </c>
-      <c r="G64" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="22"/>
-      <c r="D65" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="22"/>
-      <c r="D66" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" t="s">
-        <v>327</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
@@ -4908,41 +5896,41 @@
         <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="22"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G67" t="s">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="23">
-        <v>12</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>333</v>
+      <c r="A69" s="27">
+        <v>11</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>326</v>
       </c>
       <c r="D69" t="s">
         <v>131</v>
@@ -4960,13 +5948,13 @@
         <v>13</v>
       </c>
       <c r="I69" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="22"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
       <c r="D70" t="s">
         <v>132</v>
       </c>
@@ -4983,13 +5971,13 @@
         <v>13</v>
       </c>
       <c r="I70" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="22"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
       <c r="D71" t="s">
         <v>133</v>
       </c>
@@ -5006,18 +5994,18 @@
         <v>16</v>
       </c>
       <c r="I71" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="22"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
       <c r="D72" t="s">
         <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -5029,13 +6017,13 @@
         <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="22"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
       <c r="D73" t="s">
         <v>136</v>
       </c>
@@ -5052,18 +6040,18 @@
         <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="23">
-        <v>13</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>340</v>
+      <c r="A75" s="27">
+        <v>12</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>333</v>
       </c>
       <c r="D75" t="s">
         <v>131</v>
@@ -5081,13 +6069,13 @@
         <v>13</v>
       </c>
       <c r="I75" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="22"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
       <c r="D76" t="s">
         <v>132</v>
       </c>
@@ -5104,13 +6092,13 @@
         <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="22"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
       <c r="D77" t="s">
         <v>133</v>
       </c>
@@ -5127,18 +6115,18 @@
         <v>16</v>
       </c>
       <c r="I77" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="22"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
       <c r="D78" t="s">
         <v>134</v>
       </c>
       <c r="E78" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
@@ -5150,13 +6138,13 @@
         <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="22"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
       <c r="D79" t="s">
         <v>136</v>
       </c>
@@ -5173,18 +6161,18 @@
         <v>21</v>
       </c>
       <c r="I79" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="23">
-        <v>14</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>341</v>
+      <c r="A81" s="27">
+        <v>13</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>340</v>
       </c>
       <c r="D81" t="s">
         <v>131</v>
@@ -5202,13 +6190,13 @@
         <v>13</v>
       </c>
       <c r="I81" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="22"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="28"/>
       <c r="D82" t="s">
         <v>132</v>
       </c>
@@ -5225,13 +6213,13 @@
         <v>13</v>
       </c>
       <c r="I82" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="22"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
       <c r="D83" t="s">
         <v>133</v>
       </c>
@@ -5248,18 +6236,18 @@
         <v>16</v>
       </c>
       <c r="I83" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="22"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="28"/>
       <c r="D84" t="s">
         <v>134</v>
       </c>
       <c r="E84" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
@@ -5271,13 +6259,13 @@
         <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="22"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="28"/>
       <c r="D85" t="s">
         <v>136</v>
       </c>
@@ -5294,18 +6282,18 @@
         <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="23">
-        <v>15</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>342</v>
+      <c r="A87" s="27">
+        <v>14</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>341</v>
       </c>
       <c r="D87" t="s">
         <v>131</v>
@@ -5323,13 +6311,13 @@
         <v>13</v>
       </c>
       <c r="I87" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="22"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="28"/>
       <c r="D88" t="s">
         <v>132</v>
       </c>
@@ -5346,13 +6334,13 @@
         <v>13</v>
       </c>
       <c r="I88" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="23"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="22"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="28"/>
       <c r="D89" t="s">
         <v>133</v>
       </c>
@@ -5369,18 +6357,18 @@
         <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="22"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="28"/>
       <c r="D90" t="s">
         <v>134</v>
       </c>
       <c r="E90" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
@@ -5392,13 +6380,13 @@
         <v>21</v>
       </c>
       <c r="I90" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="22"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="28"/>
       <c r="D91" t="s">
         <v>136</v>
       </c>
@@ -5415,18 +6403,18 @@
         <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="23">
-        <v>16</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>343</v>
+      <c r="A93" s="27">
+        <v>15</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>342</v>
       </c>
       <c r="D93" t="s">
         <v>131</v>
@@ -5444,13 +6432,13 @@
         <v>13</v>
       </c>
       <c r="I93" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="23"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="22"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="28"/>
       <c r="D94" t="s">
         <v>132</v>
       </c>
@@ -5467,13 +6455,13 @@
         <v>13</v>
       </c>
       <c r="I94" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="23"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="22"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="28"/>
       <c r="D95" t="s">
         <v>133</v>
       </c>
@@ -5490,18 +6478,18 @@
         <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="22"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="28"/>
       <c r="D96" t="s">
         <v>134</v>
       </c>
       <c r="E96" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
@@ -5513,13 +6501,13 @@
         <v>21</v>
       </c>
       <c r="I96" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="23"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="22"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>136</v>
       </c>
@@ -5536,18 +6524,18 @@
         <v>21</v>
       </c>
       <c r="I97" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="23">
-        <v>17</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>344</v>
+      <c r="A99" s="27">
+        <v>16</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>343</v>
       </c>
       <c r="D99" t="s">
         <v>131</v>
@@ -5565,13 +6553,13 @@
         <v>13</v>
       </c>
       <c r="I99" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="23"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="22"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>132</v>
       </c>
@@ -5588,13 +6576,13 @@
         <v>13</v>
       </c>
       <c r="I100" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="23"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="22"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>133</v>
       </c>
@@ -5611,18 +6599,18 @@
         <v>16</v>
       </c>
       <c r="I101" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="23"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="22"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>134</v>
       </c>
       <c r="E102" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
@@ -5634,13 +6622,13 @@
         <v>21</v>
       </c>
       <c r="I102" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="22"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>136</v>
       </c>
@@ -5657,64 +6645,309 @@
         <v>21</v>
       </c>
       <c r="I103" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="27">
+        <v>17</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D105" t="s">
+        <v>131</v>
+      </c>
+      <c r="E105" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" t="s">
+        <v>64</v>
+      </c>
+      <c r="G105" t="s">
+        <v>64</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="28"/>
+      <c r="D106" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106" t="s">
+        <v>64</v>
+      </c>
+      <c r="F106" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" t="s">
+        <v>64</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="28"/>
+      <c r="D107" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="28"/>
+      <c r="D108" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" t="s">
+        <v>371</v>
+      </c>
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="28"/>
+      <c r="D109" t="s">
+        <v>136</v>
+      </c>
+      <c r="E109" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" t="s">
         <v>349</v>
       </c>
     </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="27">
+        <v>18</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="D111" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" t="s">
+        <v>64</v>
+      </c>
+      <c r="F111" t="s">
+        <v>64</v>
+      </c>
+      <c r="G111" t="s">
+        <v>64</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="28"/>
+      <c r="D112" t="s">
+        <v>132</v>
+      </c>
+      <c r="E112" t="s">
+        <v>64</v>
+      </c>
+      <c r="F112" t="s">
+        <v>64</v>
+      </c>
+      <c r="G112" t="s">
+        <v>64</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="28"/>
+      <c r="D114" t="s">
+        <v>134</v>
+      </c>
+      <c r="E114" t="s">
+        <v>445</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="28"/>
+      <c r="D115" t="s">
+        <v>136</v>
+      </c>
+      <c r="E115" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" t="s">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="56">
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="A111:A115"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="C28:C32"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="C40:C46"/>
     <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
     <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A69:A73"/>
     <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B69:B73"/>
     <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C66:C67"/>
     <mergeCell ref="C69:C73"/>
     <mergeCell ref="C75:C79"/>
     <mergeCell ref="C81:C85"/>
-    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C87:C91"/>
     <mergeCell ref="B75:B79"/>
     <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B87:B91"/>
     <mergeCell ref="A75:A79"/>
     <mergeCell ref="A81:A85"/>
     <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
     <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B93:B97"/>
     <mergeCell ref="A99:A103"/>
-    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="A105:A109"/>
     <mergeCell ref="C93:C97"/>
     <mergeCell ref="C99:C103"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="B105:B109"/>
     <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B93:B97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5725,8 +6958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5742,30 +6975,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="19" t="s">
@@ -5797,13 +7030,13 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="23">
+      <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="28" t="s">
         <v>206</v>
       </c>
       <c r="D4" t="s">
@@ -5826,9 +7059,9 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="18" t="s">
         <v>132</v>
       </c>
@@ -5849,9 +7082,9 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" t="s">
         <v>133</v>
       </c>
@@ -5872,9 +7105,9 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" t="s">
         <v>134</v>
       </c>
@@ -5895,8 +7128,8 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="23"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" t="s">
         <v>136</v>
       </c>
@@ -5917,13 +7150,13 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="23">
+      <c r="A10" s="27">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="28" t="s">
         <v>213</v>
       </c>
       <c r="D10" t="s">
@@ -5946,9 +7179,9 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" t="s">
         <v>132</v>
       </c>
@@ -5969,9 +7202,9 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
       <c r="D12" t="s">
         <v>133</v>
       </c>
@@ -5992,9 +7225,9 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
       <c r="D13" t="s">
         <v>134</v>
       </c>
@@ -6015,9 +7248,9 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
       <c r="D14" t="s">
         <v>136</v>
       </c>
@@ -6038,13 +7271,13 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="23">
+      <c r="A16" s="27">
         <v>3</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="28" t="s">
         <v>220</v>
       </c>
       <c r="D16" t="s">
@@ -6067,9 +7300,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
       <c r="D17" t="s">
         <v>132</v>
       </c>
@@ -6090,9 +7323,9 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
       <c r="D18" t="s">
         <v>133</v>
       </c>
@@ -6113,9 +7346,9 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
       <c r="D19" t="s">
         <v>134</v>
       </c>
@@ -6136,9 +7369,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" t="s">
         <v>136</v>
       </c>
@@ -6159,13 +7392,13 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="23">
+      <c r="A22" s="27">
         <v>4</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="28" t="s">
         <v>227</v>
       </c>
       <c r="D22" t="s">
@@ -6188,9 +7421,9 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="22"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" t="s">
         <v>132</v>
       </c>
@@ -6211,9 +7444,9 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
       <c r="D24" t="s">
         <v>133</v>
       </c>
@@ -6234,9 +7467,9 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="22"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
       <c r="D25" t="s">
         <v>134</v>
       </c>
@@ -6257,9 +7490,9 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="22"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" t="s">
         <v>136</v>
       </c>
@@ -6280,13 +7513,13 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="23">
+      <c r="A28" s="27">
         <v>5</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="28" t="s">
         <v>234</v>
       </c>
       <c r="D28" t="s">
@@ -6309,9 +7542,9 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="22"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
       <c r="D29" t="s">
         <v>132</v>
       </c>
@@ -6332,9 +7565,9 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
       <c r="D30" t="s">
         <v>133</v>
       </c>
@@ -6355,9 +7588,9 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" t="s">
         <v>134</v>
       </c>
@@ -6378,9 +7611,9 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
       <c r="D32" t="s">
         <v>136</v>
       </c>
@@ -6402,23 +7635,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C10:C14"/>
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B10:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Services - Repositeries" sheetId="1" r:id="rId1"/>
@@ -1931,7 +1931,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3770,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6958,7 +6958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Services - Repositeries" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="512">
   <si>
     <t>Service Name</t>
   </si>
@@ -298,9 +298,6 @@
     <t>fetch and return array of all active profession in the system</t>
   </si>
   <si>
-    <t>gerActiveSponsors</t>
-  </si>
-  <si>
     <t>fetch and return array of all active sponsors in the system</t>
   </si>
   <si>
@@ -1445,6 +1442,117 @@
   </si>
   <si>
     <t>ProfessionHeadersManagementController.php</t>
+  </si>
+  <si>
+    <t>CareerMappingManagementController.php</t>
+  </si>
+  <si>
+    <t>CareerMappingManagementController</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active ListCareerMapping in the system</t>
+  </si>
+  <si>
+    <t>importExcel</t>
+  </si>
+  <si>
+    <t>Return the array of all AddCareerBulk</t>
+  </si>
+  <si>
+    <t>addimportExcel</t>
+  </si>
+  <si>
+    <t>Return the array of CareerMapping in the system for add new CareerMapping detail</t>
+  </si>
+  <si>
+    <t>DashboardController.php</t>
+  </si>
+  <si>
+    <t>DashboardController</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active Dashboard in the system</t>
+  </si>
+  <si>
+    <t>uploadView</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active CartoonUploadScreen in the system</t>
+  </si>
+  <si>
+    <t>uploadCartoons</t>
+  </si>
+  <si>
+    <t>Fetch and return all the active HumanIconUploadScreen in the system</t>
+  </si>
+  <si>
+    <t>uploadHumanIcons</t>
+  </si>
+  <si>
+    <t>Save the  humaniconupdate detail passed from Form and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t>Level2ActivityManagementController.php</t>
+  </si>
+  <si>
+    <t>LoginController.php</t>
+  </si>
+  <si>
+    <t>LoginController</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>loginCheck</t>
+  </si>
+  <si>
+    <t>getLogout</t>
+  </si>
+  <si>
+    <t>Check weather user is login or not, if not login then redirect to login view page</t>
+  </si>
+  <si>
+    <t>If login successful redirect to dashboard ,if not given an error massage</t>
+  </si>
+  <si>
+    <t>Check weather user is logout,if yes then redirect to login view page</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>saveprofessionbulk</t>
+  </si>
+  <si>
+    <t>Return in system for add Profession Bulk file</t>
+  </si>
+  <si>
+    <t>Save the Profession's detail passed from Bulk upload file and return the boolean true/false base on action performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change school to approved school by id and return the boolean true/false </t>
+  </si>
+  <si>
+    <t>exportData</t>
+  </si>
+  <si>
+    <t>getActiveSponsors</t>
+  </si>
+  <si>
+    <t>getTeenAPIScore</t>
+  </si>
+  <si>
+    <t>$teengerId</t>
+  </si>
+  <si>
+    <t>Return url of teenager original id</t>
+  </si>
+  <si>
+    <t>getPayment</t>
+  </si>
+  <si>
+    <t>Return url of user original id</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1678,6 +1786,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1687,23 +1820,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1719,10 +1837,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2044,16 +2158,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2082,10 +2196,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -2108,8 +2222,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
@@ -2130,8 +2244,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="19" t="s">
         <v>18</v>
       </c>
@@ -2152,13 +2266,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>376</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>377</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>65</v>
@@ -2166,16 +2280,16 @@
       <c r="F6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="33"/>
       <c r="D7" s="20" t="s">
         <v>19</v>
@@ -2186,17 +2300,17 @@
       <c r="F7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>378</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>379</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>20</v>
@@ -2204,19 +2318,19 @@
       <c r="F8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="32"/>
       <c r="D9" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>20</v>
@@ -2224,37 +2338,37 @@
       <c r="F9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>381</v>
-      </c>
       <c r="E10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>20</v>
@@ -2262,17 +2376,17 @@
       <c r="F11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>382</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>383</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>20</v>
@@ -2284,14 +2398,14 @@
         <v>13</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>19</v>
@@ -2306,17 +2420,17 @@
         <v>16</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>386</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>20</v>
@@ -2324,19 +2438,19 @@
       <c r="F14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="30" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="32"/>
       <c r="D15" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>20</v>
@@ -2344,17 +2458,17 @@
       <c r="F15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>20</v>
@@ -2366,17 +2480,17 @@
         <v>21</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>65</v>
@@ -2388,17 +2502,17 @@
         <v>13</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>20</v>
@@ -2410,17 +2524,17 @@
         <v>13</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>20</v>
@@ -2428,19 +2542,19 @@
       <c r="F19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="30" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="33"/>
       <c r="D20" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>65</v>
@@ -2448,14 +2562,14 @@
       <c r="F20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>19</v>
@@ -2470,17 +2584,17 @@
         <v>13</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>20</v>
@@ -2488,19 +2602,19 @@
       <c r="F22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="33"/>
       <c r="D23" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>20</v>
@@ -2508,17 +2622,17 @@
       <c r="F23" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>20</v>
@@ -2526,19 +2640,19 @@
       <c r="F24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="33"/>
       <c r="D25" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>20</v>
@@ -2546,17 +2660,17 @@
       <c r="F25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="31"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>20</v>
@@ -2568,17 +2682,17 @@
         <v>16</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>20</v>
@@ -2590,24 +2704,24 @@
         <v>16</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="19" t="s">
@@ -2630,8 +2744,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="19" t="s">
         <v>36</v>
       </c>
@@ -2652,8 +2766,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="19" t="s">
         <v>39</v>
       </c>
@@ -2674,32 +2788,32 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="E32" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="22" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="19" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="19" t="s">
-        <v>417</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>19</v>
@@ -2714,24 +2828,24 @@
         <v>13</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="19" t="s">
@@ -2754,8 +2868,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="19" t="s">
         <v>44</v>
       </c>
@@ -2776,8 +2890,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="19" t="s">
         <v>45</v>
       </c>
@@ -2798,20 +2912,20 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="19" t="s">
@@ -2834,8 +2948,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="19" t="s">
         <v>73</v>
       </c>
@@ -2856,8 +2970,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="19" t="s">
         <v>74</v>
       </c>
@@ -2878,10 +2992,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>19</v>
@@ -2896,24 +3010,24 @@
         <v>13</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="19" t="s">
@@ -2936,8 +3050,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="19" t="s">
         <v>85</v>
       </c>
@@ -2958,8 +3072,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="19" t="s">
         <v>86</v>
       </c>
@@ -2980,24 +3094,24 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="C48" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>23</v>
@@ -3012,17 +3126,17 @@
         <v>13</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>13</v>
@@ -3034,14 +3148,14 @@
         <v>16</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>19</v>
@@ -3056,17 +3170,17 @@
         <v>21</v>
       </c>
       <c r="H50" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="37"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="19" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="D51" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>13</v>
@@ -3078,28 +3192,28 @@
         <v>16</v>
       </c>
       <c r="H51" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="B53" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="C53" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>23</v>
@@ -3114,17 +3228,17 @@
         <v>13</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>13</v>
@@ -3136,14 +3250,14 @@
         <v>16</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>19</v>
@@ -3158,28 +3272,28 @@
         <v>21</v>
       </c>
       <c r="H55" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="B57" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="C57" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>23</v>
@@ -3194,17 +3308,17 @@
         <v>13</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E58" s="21" t="s">
         <v>13</v>
@@ -3216,14 +3330,14 @@
         <v>16</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>19</v>
@@ -3238,28 +3352,28 @@
         <v>21</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="C61" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>23</v>
@@ -3274,17 +3388,17 @@
         <v>13</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>13</v>
@@ -3296,15 +3410,15 @@
         <v>16</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="33"/>
       <c r="D63" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>13</v>
@@ -3316,10 +3430,10 @@
       <c r="H63" s="22"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>19</v>
@@ -3334,28 +3448,28 @@
         <v>21</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="C66" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>243</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>23</v>
@@ -3370,17 +3484,17 @@
         <v>13</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>13</v>
@@ -3392,14 +3506,14 @@
         <v>16</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>19</v>
@@ -3414,28 +3528,28 @@
         <v>21</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B70" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="C70" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>250</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>23</v>
@@ -3450,17 +3564,17 @@
         <v>13</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>13</v>
@@ -3472,14 +3586,14 @@
         <v>16</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>19</v>
@@ -3494,28 +3608,28 @@
         <v>21</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="C74" s="19" t="s">
         <v>260</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>261</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>23</v>
@@ -3530,17 +3644,17 @@
         <v>13</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
       <c r="C75" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>13</v>
@@ -3552,14 +3666,14 @@
         <v>16</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>19</v>
@@ -3574,28 +3688,28 @@
         <v>21</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="B78" s="26" t="s">
+      <c r="A78" s="35" t="s">
         <v>275</v>
       </c>
+      <c r="B78" s="35" t="s">
+        <v>274</v>
+      </c>
       <c r="C78" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>23</v>
@@ -3610,17 +3724,17 @@
         <v>13</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>13</v>
@@ -3632,14 +3746,14 @@
         <v>16</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>19</v>
@@ -3654,14 +3768,14 @@
         <v>21</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>23</v>
@@ -3676,17 +3790,17 @@
         <v>13</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>422</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>423</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>13</v>
@@ -3698,14 +3812,14 @@
         <v>16</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D83" s="20" t="s">
         <v>19</v>
@@ -3720,28 +3834,28 @@
         <v>21</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="C85" s="19" t="s">
         <v>278</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>279</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>23</v>
@@ -3756,17 +3870,17 @@
         <v>13</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>13</v>
@@ -3774,19 +3888,19 @@
       <c r="F86" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="31" t="s">
+      <c r="G86" s="30" t="s">
         <v>16</v>
       </c>
       <c r="H86" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="32"/>
       <c r="D87" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>13</v>
@@ -3794,15 +3908,15 @@
       <c r="F87" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="31"/>
+      <c r="G87" s="30"/>
       <c r="H87" s="32"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="32"/>
       <c r="D88" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>21</v>
@@ -3810,14 +3924,14 @@
       <c r="F88" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="31"/>
+      <c r="G88" s="30"/>
       <c r="H88" s="32"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>19</v>
@@ -3832,28 +3946,28 @@
         <v>21</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="C91" s="19" t="s">
         <v>287</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>288</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>23</v>
@@ -3868,17 +3982,17 @@
         <v>13</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E92" s="21" t="s">
         <v>13</v>
@@ -3890,15 +4004,15 @@
         <v>16</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
-      <c r="B93" s="31"/>
+      <c r="A93" s="30"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="32"/>
       <c r="D93" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E93" s="21" t="s">
         <v>13</v>
@@ -3910,11 +4024,11 @@
       <c r="H93" s="22"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
-      <c r="B94" s="31"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="32"/>
       <c r="D94" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>13</v>
@@ -3926,10 +4040,10 @@
       <c r="H94" s="22"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>19</v>
@@ -3944,21 +4058,76 @@
         <v>21</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="A3:A27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="A35:A37"/>
@@ -3975,61 +4144,6 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="A3:A27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A96:H96"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C92:C94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4038,10 +4152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4110,7 +4224,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -4133,7 +4247,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="32"/>
       <c r="C6" s="19" t="s">
         <v>52</v>
@@ -4148,7 +4262,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="32"/>
       <c r="C7" s="19" t="s">
         <v>53</v>
@@ -4163,7 +4277,7 @@
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="32"/>
       <c r="C8" s="19" t="s">
         <v>54</v>
@@ -4178,7 +4292,7 @@
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="32"/>
       <c r="C9" s="19" t="s">
         <v>55</v>
@@ -4193,7 +4307,7 @@
       <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="32"/>
       <c r="C10" s="19" t="s">
         <v>56</v>
@@ -4208,7 +4322,7 @@
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="32"/>
       <c r="C11" s="19" t="s">
         <v>57</v>
@@ -4223,7 +4337,7 @@
       <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="32"/>
       <c r="C12" s="19" t="s">
         <v>58</v>
@@ -4238,7 +4352,7 @@
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="32"/>
       <c r="C13" s="19" t="s">
         <v>67</v>
@@ -4253,16 +4367,16 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="19" t="s">
         <v>59</v>
       </c>
@@ -4283,16 +4397,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="19" t="s">
         <v>60</v>
       </c>
@@ -4313,16 +4427,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="19" t="s">
         <v>80</v>
       </c>
@@ -4343,16 +4457,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="19" t="s">
         <v>62</v>
       </c>
@@ -4373,16 +4487,16 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="19" t="s">
         <v>91</v>
       </c>
@@ -4403,348 +4517,348 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="19" t="s">
+      <c r="C31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="19" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="19" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="19" t="s">
+      <c r="C33" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="19" t="s">
+      <c r="C35" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="19" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="19" t="s">
+      <c r="C37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="19" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="19" t="s">
+      <c r="C39" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="19" t="s">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="19" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="19" t="s">
+      <c r="C41" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="19" t="s">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="19" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="19" t="s">
+      <c r="C43" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="19" t="s">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="19" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="19" t="s">
+      <c r="C45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="19" t="s">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="19" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="19" t="s">
-        <v>315</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>64</v>
@@ -4759,50 +4873,50 @@
         <v>20</v>
       </c>
       <c r="G47" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="19" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="19" t="s">
+      <c r="C49" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="19" t="s">
+      <c r="G49" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="G49" s="19" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="19" t="s">
         <v>91</v>
       </c>
@@ -4819,55 +4933,55 @@
         <v>13</v>
       </c>
       <c r="G51" s="19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
+      <c r="B53" s="19" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="19" t="s">
+      <c r="C53" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="G53" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="G53" s="19" t="s">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="19" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>454</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>455</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>65</v>
@@ -4876,46 +4990,114 @@
         <v>15</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G55" s="19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
+      <c r="B61" s="19" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="19" t="s">
+      <c r="C61" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="G61" s="19" t="s">
         <v>457</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>458</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B50:G50"/>
     <mergeCell ref="B5:B13"/>
-    <mergeCell ref="A5:A57"/>
+    <mergeCell ref="A5:A61"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B18:G18"/>
@@ -4930,14 +5112,6 @@
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B50:G50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4946,10 +5120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4964,17 +5138,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="A1" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -4984,17 +5158,17 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="A2" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -5005,13 +5179,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>129</v>
+      <c r="C3" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>2</v>
@@ -5033,63 +5207,63 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>370</v>
+      <c r="B4" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>369</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="E5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="40" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>19</v>
@@ -5104,18 +5278,18 @@
         <v>16</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>16</v>
@@ -5127,15 +5301,15 @@
         <v>21</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>19</v>
@@ -5154,11 +5328,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>64</v>
@@ -5173,18 +5347,18 @@
         <v>13</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>16</v>
@@ -5196,38 +5370,38 @@
         <v>13</v>
       </c>
       <c r="I10" s="19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="19" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="19" t="s">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="19" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="19" t="s">
-        <v>438</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>64</v>
@@ -5242,153 +5416,153 @@
         <v>21</v>
       </c>
       <c r="I12" s="19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="19" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="19" t="s">
+      <c r="E14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
         <v>2</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="C15" s="31" t="s">
+      <c r="B16" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="F19" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>15</v>
@@ -5397,21 +5571,21 @@
         <v>21</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="19" t="s">
-        <v>442</v>
+        <v>135</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>15</v>
@@ -5420,130 +5594,130 @@
         <v>21</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>443</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
         <v>3</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="C22" s="31" t="s">
+      <c r="B23" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="19" t="s">
+      <c r="F26" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>15</v>
@@ -5552,130 +5726,130 @@
         <v>21</v>
       </c>
       <c r="I26" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-    </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
         <v>4</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="C28" s="31" t="s">
+      <c r="B29" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="19" t="s">
+      <c r="F32" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>15</v>
@@ -5684,124 +5858,124 @@
         <v>21</v>
       </c>
       <c r="I32" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
         <v>5</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="19" t="s">
+      <c r="B36" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="19" t="s">
+      <c r="E37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>19</v>
@@ -5813,391 +5987,397 @@
         <v>15</v>
       </c>
       <c r="H38" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I39" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="31">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
         <v>6</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B44" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="30">
+        <v>7</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="C40" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="C52" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="19" t="s">
+      <c r="E53" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="19" t="s">
+      <c r="E54" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="19" t="s">
+      <c r="E55" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="19" t="s">
+      <c r="G55" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="31">
-        <v>7</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="19" t="s">
+      <c r="I55" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="31">
-        <v>8</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>19</v>
@@ -6209,127 +6389,127 @@
         <v>15</v>
       </c>
       <c r="H56" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
+        <v>8</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="19" t="s">
+      <c r="I60" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="19" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="31">
-        <v>9</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>19</v>
@@ -6341,322 +6521,322 @@
         <v>15</v>
       </c>
       <c r="H62" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
+        <v>9</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="19" t="s">
+      <c r="I66" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F63" s="19" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="30">
+        <v>10</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="F70" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="19" t="s">
+      <c r="G70" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="19" t="s">
+      <c r="I70" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="30">
+        <v>11</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="F75" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G64" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="19" t="s">
+      <c r="G75" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="31">
-        <v>10</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="31">
-        <v>11</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="19" t="s">
+      <c r="I76" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="31">
-        <v>12</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>470</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H76" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>19</v>
@@ -6668,127 +6848,127 @@
         <v>15</v>
       </c>
       <c r="H77" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="30">
+        <v>12</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I77" s="19" t="s">
+      <c r="I81" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="19" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="31">
-        <v>13</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H81" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="19" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H82" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>366</v>
-      </c>
-    </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>19</v>
@@ -6800,127 +6980,127 @@
         <v>15</v>
       </c>
       <c r="H83" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="30">
+        <v>13</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I83" s="19" t="s">
+      <c r="I87" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="19" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="31">
-        <v>14</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F87" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H87" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="19" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G88" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H88" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>361</v>
-      </c>
-    </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>19</v>
@@ -6932,127 +7112,127 @@
         <v>15</v>
       </c>
       <c r="H89" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="30">
+        <v>14</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="30"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="30"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I89" s="19" t="s">
+      <c r="I93" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="19" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I90" s="19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E91" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I91" s="19" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="31">
-        <v>15</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E93" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G93" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H93" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G94" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H94" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="19" t="s">
-        <v>356</v>
-      </c>
-    </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="36"/>
       <c r="D95" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>19</v>
@@ -7064,127 +7244,127 @@
         <v>15</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="36"/>
       <c r="D96" s="19" t="s">
-        <v>134</v>
+        <v>485</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>373</v>
+        <v>64</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>358</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="37"/>
       <c r="D97" s="19" t="s">
-        <v>136</v>
+        <v>487</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="H97" s="19" t="s">
         <v>21</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="31">
-        <v>16</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="C99" s="31" t="s">
-        <v>343</v>
+      <c r="A99" s="30">
+        <v>15</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="D99" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="30"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E99" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F99" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G99" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H99" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="19" t="s">
+      <c r="E100" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G100" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H100" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="19" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="31"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>19</v>
@@ -7199,15 +7379,15 @@
         <v>16</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="31"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="36"/>
       <c r="D102" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>372</v>
@@ -7222,15 +7402,15 @@
         <v>21</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="31"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
+      <c r="A103" s="30"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="37"/>
       <c r="D103" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>19</v>
@@ -7245,78 +7425,78 @@
         <v>21</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="31">
-        <v>17</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>344</v>
+      <c r="A105" s="30">
+        <v>16</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>342</v>
       </c>
       <c r="D105" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" s="19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E105" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G105" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H105" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="31"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="19" t="s">
+      <c r="E106" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H106" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="30"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G106" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H106" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="31"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>19</v>
@@ -7331,15 +7511,15 @@
         <v>16</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
+      <c r="A108" s="30"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="36"/>
       <c r="D108" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>371</v>
@@ -7354,15 +7534,15 @@
         <v>21</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="31"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
+      <c r="A109" s="30"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="36"/>
       <c r="D109" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>19</v>
@@ -7377,124 +7557,124 @@
         <v>21</v>
       </c>
       <c r="I109" s="19" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="29"/>
+      <c r="A110" s="30"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="19" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="31">
-        <v>18</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="C111" s="31" t="s">
-        <v>444</v>
-      </c>
+      <c r="A111" s="30"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="37"/>
       <c r="D111" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" s="19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="34"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="34"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="30">
+        <v>17</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F113" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G113" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="30"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F111" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G111" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H111" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="19" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="19" t="s">
+      <c r="E114" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F114" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H114" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="30"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="E112" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F112" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G112" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H112" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="19" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="31"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E113" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H113" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I113" s="19" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="31"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="F114" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I114" s="19" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>19</v>
@@ -7506,87 +7686,450 @@
         <v>15</v>
       </c>
       <c r="H115" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="30"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="F116" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I115" s="19" t="s">
-        <v>450</v>
+      <c r="I116" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="30">
+        <v>18</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="30"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G120" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H120" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" s="19" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="30"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="30"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I122" s="19" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="30"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I123" s="19" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="30">
+        <v>19</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" s="19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="30"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="30"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G127" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H127" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="27">
+        <v>20</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F129" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G129" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" s="19" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="30">
+        <v>21</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G131" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I131" s="19" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="30"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I132" s="19" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="30"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="37"/>
+      <c r="D133" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="A110:I110"/>
+  <mergeCells count="79">
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="A112:I112"/>
     <mergeCell ref="A104:I104"/>
     <mergeCell ref="A98:I98"/>
-    <mergeCell ref="A92:I92"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="A80:I80"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="A113:A117"/>
     <mergeCell ref="C99:C103"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="C4:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7597,7 +8140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B14"/>
     </sheetView>
   </sheetViews>
@@ -7614,40 +8157,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>2</v>
@@ -7669,63 +8212,63 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>206</v>
+      <c r="B4" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="E5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="32"/>
       <c r="D6" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>19</v>
@@ -7740,18 +8283,18 @@
         <v>16</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="32"/>
       <c r="D7" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>16</v>
@@ -7763,15 +8306,15 @@
         <v>21</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="32"/>
       <c r="D8" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>19</v>
@@ -7786,32 +8329,32 @@
         <v>21</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>2</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>2</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>213</v>
-      </c>
       <c r="C10" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>64</v>
@@ -7826,15 +8369,15 @@
         <v>13</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="32"/>
       <c r="D11" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>64</v>
@@ -7849,15 +8392,15 @@
         <v>13</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="32"/>
       <c r="D12" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>19</v>
@@ -7872,18 +8415,18 @@
         <v>16</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="32"/>
       <c r="D13" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>16</v>
@@ -7895,15 +8438,15 @@
         <v>21</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="32"/>
       <c r="D14" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>19</v>
@@ -7918,32 +8461,32 @@
         <v>21</v>
       </c>
       <c r="I14" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>3</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>3</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>220</v>
-      </c>
       <c r="C16" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>64</v>
@@ -7958,15 +8501,15 @@
         <v>13</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="32"/>
       <c r="D17" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>64</v>
@@ -7981,15 +8524,15 @@
         <v>13</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="32"/>
       <c r="D18" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>19</v>
@@ -8004,18 +8547,18 @@
         <v>16</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="32"/>
       <c r="D19" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>16</v>
@@ -8027,15 +8570,15 @@
         <v>21</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="32"/>
       <c r="D20" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>19</v>
@@ -8050,32 +8593,32 @@
         <v>21</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+      <c r="A22" s="30">
         <v>4</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>227</v>
+      <c r="B22" s="30" t="s">
+        <v>226</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>64</v>
@@ -8090,15 +8633,15 @@
         <v>13</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="32"/>
       <c r="D23" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>64</v>
@@ -8113,15 +8656,15 @@
         <v>13</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="32"/>
       <c r="D24" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>19</v>
@@ -8136,18 +8679,18 @@
         <v>16</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="32"/>
       <c r="D25" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>16</v>
@@ -8159,15 +8702,15 @@
         <v>21</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="32"/>
       <c r="D26" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>19</v>
@@ -8182,32 +8725,32 @@
         <v>21</v>
       </c>
       <c r="I26" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>5</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
-        <v>5</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>234</v>
-      </c>
       <c r="C28" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>64</v>
@@ -8222,15 +8765,15 @@
         <v>13</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="32"/>
       <c r="D29" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>64</v>
@@ -8245,15 +8788,15 @@
         <v>13</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="32"/>
       <c r="D30" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>19</v>
@@ -8268,18 +8811,18 @@
         <v>16</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="32"/>
       <c r="D31" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>16</v>
@@ -8291,15 +8834,15 @@
         <v>21</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="32"/>
       <c r="D32" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>19</v>
@@ -8314,22 +8857,28 @@
         <v>21</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A33:I33"/>
     <mergeCell ref="B16:B20"/>
@@ -8346,12 +8895,6 @@
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -1711,7 +1711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1787,29 +1787,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1820,8 +1802,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1836,6 +1833,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2158,16 +2164,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2196,10 +2202,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -2222,8 +2228,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
@@ -2244,8 +2250,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="19" t="s">
         <v>18</v>
       </c>
@@ -2266,9 +2272,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="33" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="34" t="s">
         <v>375</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -2280,17 +2286,17 @@
       <c r="F6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="35" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2300,13 +2306,13 @@
       <c r="F7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="32"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="32" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="35" t="s">
         <v>377</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -2318,17 +2324,17 @@
       <c r="F8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="35" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="20" t="s">
         <v>401</v>
       </c>
@@ -2338,12 +2344,12 @@
       <c r="F9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="24" t="s">
         <v>379</v>
       </c>
@@ -2356,16 +2362,16 @@
       <c r="F10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="35" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20" t="s">
         <v>403</v>
@@ -2376,12 +2382,12 @@
       <c r="F11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="32"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="24" t="s">
         <v>381</v>
       </c>
@@ -2402,8 +2408,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="24" t="s">
         <v>383</v>
       </c>
@@ -2424,9 +2430,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="32" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35" t="s">
         <v>384</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -2438,17 +2444,17 @@
       <c r="F14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="35" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="20" t="s">
         <v>386</v>
       </c>
@@ -2458,12 +2464,12 @@
       <c r="F15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="32"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="25" t="s">
         <v>408</v>
       </c>
@@ -2484,8 +2490,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="24" t="s">
         <v>387</v>
       </c>
@@ -2506,8 +2512,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="24" t="s">
         <v>388</v>
       </c>
@@ -2528,9 +2534,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="33" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="34" t="s">
         <v>389</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -2542,17 +2548,17 @@
       <c r="F19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="32" t="s">
+      <c r="G19" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="20" t="s">
         <v>395</v>
       </c>
@@ -2562,12 +2568,12 @@
       <c r="F20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="32"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="24" t="s">
         <v>427</v>
       </c>
@@ -2588,9 +2594,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="33" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="34" t="s">
         <v>390</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -2602,17 +2608,17 @@
       <c r="F22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="35" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="20" t="s">
         <v>396</v>
       </c>
@@ -2622,13 +2628,13 @@
       <c r="F23" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="32"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="33" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="34" t="s">
         <v>397</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -2640,17 +2646,17 @@
       <c r="F24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="35" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="20" t="s">
         <v>396</v>
       </c>
@@ -2660,12 +2666,12 @@
       <c r="F25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="32"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="24" t="s">
         <v>391</v>
       </c>
@@ -2686,8 +2692,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="24" t="s">
         <v>392</v>
       </c>
@@ -2708,20 +2714,20 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="36" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="19" t="s">
@@ -2744,8 +2750,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="19" t="s">
         <v>36</v>
       </c>
@@ -2766,8 +2772,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="19" t="s">
         <v>39</v>
       </c>
@@ -2788,8 +2794,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="19" t="s">
         <v>413</v>
       </c>
@@ -2810,8 +2816,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="19" t="s">
         <v>416</v>
       </c>
@@ -2832,20 +2838,20 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="19" t="s">
@@ -2868,8 +2874,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="19" t="s">
         <v>44</v>
       </c>
@@ -2890,8 +2896,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="19" t="s">
         <v>45</v>
       </c>
@@ -2912,20 +2918,20 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="19" t="s">
@@ -2948,8 +2954,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="19" t="s">
         <v>73</v>
       </c>
@@ -2970,8 +2976,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="19" t="s">
         <v>74</v>
       </c>
@@ -2992,8 +2998,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="19" t="s">
         <v>418</v>
       </c>
@@ -3014,20 +3020,20 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="36" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="19" t="s">
@@ -3050,8 +3056,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="19" t="s">
         <v>85</v>
       </c>
@@ -3072,8 +3078,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="19" t="s">
         <v>86</v>
       </c>
@@ -3094,20 +3100,20 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="36" t="s">
         <v>95</v>
       </c>
       <c r="C48" s="19" t="s">
@@ -3130,8 +3136,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="19" t="s">
         <v>97</v>
       </c>
@@ -3152,8 +3158,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="19" t="s">
         <v>98</v>
       </c>
@@ -3174,8 +3180,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="19" t="s">
         <v>103</v>
       </c>
@@ -3196,20 +3202,20 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="36" t="s">
         <v>106</v>
       </c>
       <c r="C53" s="19" t="s">
@@ -3232,8 +3238,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="19" t="s">
         <v>108</v>
       </c>
@@ -3254,8 +3260,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="19" t="s">
         <v>109</v>
       </c>
@@ -3276,20 +3282,20 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C57" s="19" t="s">
@@ -3312,8 +3318,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="19" t="s">
         <v>117</v>
       </c>
@@ -3334,8 +3340,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="19" t="s">
         <v>118</v>
       </c>
@@ -3356,20 +3362,20 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="36" t="s">
         <v>180</v>
       </c>
       <c r="C61" s="19" t="s">
@@ -3392,9 +3398,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="33" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="34" t="s">
         <v>182</v>
       </c>
       <c r="D62" s="20" t="s">
@@ -3414,9 +3420,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="33"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="20" t="s">
         <v>185</v>
       </c>
@@ -3430,8 +3436,8 @@
       <c r="H63" s="22"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="19" t="s">
         <v>183</v>
       </c>
@@ -3452,20 +3458,20 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="36" t="s">
         <v>241</v>
       </c>
       <c r="C66" s="19" t="s">
@@ -3488,8 +3494,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="19" t="s">
         <v>243</v>
       </c>
@@ -3510,8 +3516,8 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="19" t="s">
         <v>244</v>
       </c>
@@ -3532,20 +3538,20 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="36" t="s">
         <v>248</v>
       </c>
       <c r="C70" s="19" t="s">
@@ -3568,8 +3574,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="19" t="s">
         <v>250</v>
       </c>
@@ -3590,8 +3596,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="19" t="s">
         <v>251</v>
       </c>
@@ -3612,20 +3618,20 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="36" t="s">
         <v>259</v>
       </c>
       <c r="C74" s="19" t="s">
@@ -3648,8 +3654,8 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="19" t="s">
         <v>261</v>
       </c>
@@ -3670,8 +3676,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="19" t="s">
         <v>262</v>
       </c>
@@ -3692,20 +3698,20 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="29" t="s">
         <v>274</v>
       </c>
       <c r="C78" s="19" t="s">
@@ -3728,8 +3734,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="36"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="19" t="s">
         <v>272</v>
       </c>
@@ -3750,8 +3756,8 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
-      <c r="B80" s="36"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="19" t="s">
         <v>273</v>
       </c>
@@ -3772,8 +3778,8 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="19" t="s">
         <v>420</v>
       </c>
@@ -3794,8 +3800,8 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="19" t="s">
         <v>421</v>
       </c>
@@ -3816,8 +3822,8 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="19" t="s">
         <v>423</v>
       </c>
@@ -3838,20 +3844,20 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="36" t="s">
         <v>277</v>
       </c>
       <c r="C85" s="19" t="s">
@@ -3874,9 +3880,9 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="32" t="s">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="35" t="s">
         <v>279</v>
       </c>
       <c r="D86" s="20" t="s">
@@ -3888,17 +3894,17 @@
       <c r="F86" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="30" t="s">
+      <c r="G86" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H86" s="32" t="s">
+      <c r="H86" s="35" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="32"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="35"/>
       <c r="D87" s="20" t="s">
         <v>185</v>
       </c>
@@ -3908,13 +3914,13 @@
       <c r="F87" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="30"/>
-      <c r="H87" s="32"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="35"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="32"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="35"/>
       <c r="D88" s="20" t="s">
         <v>281</v>
       </c>
@@ -3924,12 +3930,12 @@
       <c r="F88" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="30"/>
-      <c r="H88" s="32"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="35"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="19" t="s">
         <v>280</v>
       </c>
@@ -3950,20 +3956,20 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="36" t="s">
         <v>286</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -3986,9 +3992,9 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="32" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="35" t="s">
         <v>288</v>
       </c>
       <c r="D92" s="20" t="s">
@@ -4008,9 +4014,9 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="32"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="35"/>
       <c r="D93" s="20" t="s">
         <v>291</v>
       </c>
@@ -4024,9 +4030,9 @@
       <c r="H93" s="22"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="32"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="20" t="s">
         <v>292</v>
       </c>
@@ -4040,8 +4046,8 @@
       <c r="H94" s="22"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="19" t="s">
         <v>289</v>
       </c>
@@ -4062,17 +4068,72 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="A3:A27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="A84:H84"/>
@@ -4089,61 +4150,6 @@
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="C86:C88"/>
     <mergeCell ref="C92:C94"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="A3:A27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4154,8 +4160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,10 +4230,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -4247,8 +4253,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="19" t="s">
         <v>52</v>
       </c>
@@ -4262,8 +4268,8 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="19" t="s">
         <v>53</v>
       </c>
@@ -4277,8 +4283,8 @@
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="19" t="s">
         <v>54</v>
       </c>
@@ -4292,8 +4298,8 @@
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="19" t="s">
         <v>55</v>
       </c>
@@ -4307,8 +4313,8 @@
       <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="19" t="s">
         <v>56</v>
       </c>
@@ -4322,8 +4328,8 @@
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="19" t="s">
         <v>57</v>
       </c>
@@ -4337,8 +4343,8 @@
       <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="19" t="s">
         <v>58</v>
       </c>
@@ -4352,8 +4358,8 @@
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="19" t="s">
         <v>67</v>
       </c>
@@ -4367,16 +4373,16 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="19" t="s">
         <v>59</v>
       </c>
@@ -4397,16 +4403,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="19" t="s">
         <v>60</v>
       </c>
@@ -4427,16 +4433,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="19" t="s">
         <v>80</v>
       </c>
@@ -4457,16 +4463,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="19" t="s">
         <v>62</v>
       </c>
@@ -4487,16 +4493,16 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="19" t="s">
         <v>91</v>
       </c>
@@ -4517,16 +4523,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="19" t="s">
         <v>506</v>
       </c>
@@ -4547,16 +4553,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="19" t="s">
         <v>123</v>
       </c>
@@ -4577,16 +4583,16 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="19" t="s">
         <v>297</v>
       </c>
@@ -4607,16 +4613,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="19" t="s">
         <v>298</v>
       </c>
@@ -4637,16 +4643,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="19" t="s">
         <v>300</v>
       </c>
@@ -4667,16 +4673,16 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="19" t="s">
         <v>301</v>
       </c>
@@ -4697,16 +4703,16 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="19" t="s">
         <v>302</v>
       </c>
@@ -4727,16 +4733,16 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="19" t="s">
         <v>306</v>
       </c>
@@ -4757,16 +4763,16 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="19" t="s">
         <v>308</v>
       </c>
@@ -4787,16 +4793,16 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="19" t="s">
         <v>310</v>
       </c>
@@ -4817,16 +4823,16 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="19" t="s">
         <v>312</v>
       </c>
@@ -4847,16 +4853,16 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="19" t="s">
         <v>314</v>
       </c>
@@ -4877,16 +4883,16 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="19" t="s">
         <v>316</v>
       </c>
@@ -4907,16 +4913,16 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="19" t="s">
         <v>91</v>
       </c>
@@ -4937,16 +4943,16 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="19" t="s">
         <v>451</v>
       </c>
@@ -4967,16 +4973,16 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="19" t="s">
         <v>453</v>
       </c>
@@ -4997,16 +5003,16 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="22" t="s">
         <v>507</v>
       </c>
@@ -5027,16 +5033,16 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="22" t="s">
         <v>510</v>
       </c>
@@ -5057,16 +5063,16 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="44"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="19" t="s">
         <v>456</v>
       </c>
@@ -5088,14 +5094,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B50:G50"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="A5:A61"/>
     <mergeCell ref="B14:G14"/>
@@ -5112,6 +5110,14 @@
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B50:G50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5138,17 +5144,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -5158,17 +5164,17 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -5184,7 +5190,7 @@
       <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>128</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -5207,13 +5213,13 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="36">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="29" t="s">
         <v>369</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -5236,10 +5242,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="27" t="s">
         <v>131</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -5259,9 +5265,9 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="19" t="s">
         <v>132</v>
       </c>
@@ -5282,9 +5288,9 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="19" t="s">
         <v>133</v>
       </c>
@@ -5305,9 +5311,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="19" t="s">
         <v>135</v>
       </c>
@@ -5328,9 +5334,9 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="36"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="19" t="s">
         <v>165</v>
       </c>
@@ -5351,9 +5357,9 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="19" t="s">
         <v>167</v>
       </c>
@@ -5374,9 +5380,9 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="36"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="19" t="s">
         <v>435</v>
       </c>
@@ -5397,9 +5403,9 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="19" t="s">
         <v>437</v>
       </c>
@@ -5420,9 +5426,9 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="36"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="19" t="s">
         <v>505</v>
       </c>
@@ -5443,9 +5449,9 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="19" t="s">
         <v>439</v>
       </c>
@@ -5466,24 +5472,24 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="36">
         <v>2</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="36" t="s">
         <v>459</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="29" t="s">
         <v>139</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -5506,9 +5512,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="36"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="19" t="s">
         <v>131</v>
       </c>
@@ -5529,9 +5535,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="19" t="s">
         <v>132</v>
       </c>
@@ -5552,9 +5558,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="19" t="s">
         <v>133</v>
       </c>
@@ -5575,9 +5581,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="19" t="s">
         <v>135</v>
       </c>
@@ -5598,9 +5604,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="19" t="s">
         <v>441</v>
       </c>
@@ -5621,24 +5627,24 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="36">
         <v>3</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="29" t="s">
         <v>142</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -5661,9 +5667,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="19" t="s">
         <v>131</v>
       </c>
@@ -5684,9 +5690,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="19" t="s">
         <v>132</v>
       </c>
@@ -5707,9 +5713,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="19" t="s">
         <v>133</v>
       </c>
@@ -5730,9 +5736,9 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="19" t="s">
         <v>135</v>
       </c>
@@ -5753,24 +5759,24 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
+      <c r="A29" s="36">
         <v>4</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="29" t="s">
         <v>144</v>
       </c>
       <c r="D29" s="19" t="s">
@@ -5793,9 +5799,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="19" t="s">
         <v>131</v>
       </c>
@@ -5816,9 +5822,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="19" t="s">
         <v>132</v>
       </c>
@@ -5839,9 +5845,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="36"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="19" t="s">
         <v>133</v>
       </c>
@@ -5862,9 +5868,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="19" t="s">
         <v>441</v>
       </c>
@@ -5885,9 +5891,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="19" t="s">
         <v>135</v>
       </c>
@@ -5908,24 +5914,24 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+      <c r="A36" s="36">
         <v>5</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="36" t="s">
         <v>462</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="29" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="19" t="s">
@@ -5948,9 +5954,9 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="36"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="19" t="s">
         <v>131</v>
       </c>
@@ -5971,9 +5977,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="19" t="s">
         <v>132</v>
       </c>
@@ -5994,9 +6000,9 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="36"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="19" t="s">
         <v>133</v>
       </c>
@@ -6017,9 +6023,9 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="36"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="19" t="s">
         <v>135</v>
       </c>
@@ -6040,9 +6046,9 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="36"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="19" t="s">
         <v>165</v>
       </c>
@@ -6063,9 +6069,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="37"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="19" t="s">
         <v>501</v>
       </c>
@@ -6086,24 +6092,24 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
+      <c r="A44" s="36">
         <v>6</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="29" t="s">
         <v>160</v>
       </c>
       <c r="D44" s="19" t="s">
@@ -6126,9 +6132,9 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="36"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="19" t="s">
         <v>131</v>
       </c>
@@ -6149,9 +6155,9 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="36"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="19" t="s">
         <v>132</v>
       </c>
@@ -6172,9 +6178,9 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="36"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="19" t="s">
         <v>133</v>
       </c>
@@ -6195,9 +6201,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="36"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="30"/>
       <c r="D48" s="19" t="s">
         <v>135</v>
       </c>
@@ -6218,9 +6224,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="36"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="19" t="s">
         <v>165</v>
       </c>
@@ -6241,9 +6247,9 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="37"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="19" t="s">
         <v>167</v>
       </c>
@@ -6264,24 +6270,24 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="30">
+      <c r="A52" s="36">
         <v>7</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="36" t="s">
         <v>464</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="29" t="s">
         <v>170</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -6304,9 +6310,9 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="36"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="30"/>
       <c r="D53" s="19" t="s">
         <v>131</v>
       </c>
@@ -6327,9 +6333,9 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="36"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="19" t="s">
         <v>132</v>
       </c>
@@ -6350,9 +6356,9 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="36"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="19" t="s">
         <v>133</v>
       </c>
@@ -6373,9 +6379,9 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="37"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="19" t="s">
         <v>135</v>
       </c>
@@ -6396,24 +6402,24 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="30">
+      <c r="A58" s="36">
         <v>8</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="29" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="19" t="s">
@@ -6436,9 +6442,9 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="36"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="19" t="s">
         <v>131</v>
       </c>
@@ -6459,9 +6465,9 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="36"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="19" t="s">
         <v>132</v>
       </c>
@@ -6482,9 +6488,9 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="36"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="30"/>
       <c r="D61" s="19" t="s">
         <v>133</v>
       </c>
@@ -6505,9 +6511,9 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="37"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="19" t="s">
         <v>135</v>
       </c>
@@ -6528,24 +6534,24 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="30">
+      <c r="A64" s="36">
         <v>9</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="29" t="s">
         <v>189</v>
       </c>
       <c r="D64" s="19" t="s">
@@ -6568,9 +6574,9 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="36"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="19" t="s">
         <v>131</v>
       </c>
@@ -6591,9 +6597,9 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="36"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="19" t="s">
         <v>132</v>
       </c>
@@ -6614,9 +6620,9 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="36"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="30"/>
       <c r="D67" s="19" t="s">
         <v>133</v>
       </c>
@@ -6637,9 +6643,9 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="37"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="19" t="s">
         <v>135</v>
       </c>
@@ -6660,24 +6666,24 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="30">
+      <c r="A70" s="36">
         <v>10</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="36" t="s">
         <v>467</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="29" t="s">
         <v>319</v>
       </c>
       <c r="D70" s="19" t="s">
@@ -6700,9 +6706,9 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="37"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="19" t="s">
         <v>323</v>
       </c>
@@ -6723,24 +6729,24 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="30">
+      <c r="A73" s="36">
         <v>11</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="29" t="s">
         <v>325</v>
       </c>
       <c r="D73" s="19" t="s">
@@ -6763,9 +6769,9 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="36"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="19" t="s">
         <v>131</v>
       </c>
@@ -6786,9 +6792,9 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="36"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="30"/>
       <c r="D75" s="19" t="s">
         <v>132</v>
       </c>
@@ -6809,9 +6815,9 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="36"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="30"/>
       <c r="D76" s="19" t="s">
         <v>133</v>
       </c>
@@ -6832,9 +6838,9 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="37"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="19" t="s">
         <v>135</v>
       </c>
@@ -6855,24 +6861,24 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="30">
+      <c r="A79" s="36">
         <v>12</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="29" t="s">
         <v>332</v>
       </c>
       <c r="D79" s="19" t="s">
@@ -6895,9 +6901,9 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="36"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="19" t="s">
         <v>131</v>
       </c>
@@ -6918,9 +6924,9 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="36"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="30"/>
       <c r="D81" s="19" t="s">
         <v>132</v>
       </c>
@@ -6941,9 +6947,9 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="36"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="30"/>
       <c r="D82" s="19" t="s">
         <v>133</v>
       </c>
@@ -6964,9 +6970,9 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="37"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="19" t="s">
         <v>135</v>
       </c>
@@ -6987,24 +6993,24 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="30">
-        <v>13</v>
-      </c>
-      <c r="B85" s="30" t="s">
+      <c r="A85" s="36">
+        <v>13</v>
+      </c>
+      <c r="B85" s="36" t="s">
         <v>470</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="29" t="s">
         <v>339</v>
       </c>
       <c r="D85" s="19" t="s">
@@ -7027,9 +7033,9 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="36"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="30"/>
       <c r="D86" s="19" t="s">
         <v>131</v>
       </c>
@@ -7050,9 +7056,9 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="36"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="30"/>
       <c r="D87" s="19" t="s">
         <v>132</v>
       </c>
@@ -7073,9 +7079,9 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="36"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="30"/>
       <c r="D88" s="19" t="s">
         <v>133</v>
       </c>
@@ -7096,9 +7102,9 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="37"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="19" t="s">
         <v>135</v>
       </c>
@@ -7119,24 +7125,24 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="30">
+      <c r="A91" s="36">
         <v>14</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="29" t="s">
         <v>340</v>
       </c>
       <c r="D91" s="19" t="s">
@@ -7159,9 +7165,9 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="36"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="30"/>
       <c r="D92" s="19" t="s">
         <v>131</v>
       </c>
@@ -7182,9 +7188,9 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="36"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="30"/>
       <c r="D93" s="19" t="s">
         <v>132</v>
       </c>
@@ -7205,9 +7211,9 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="36"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="19" t="s">
         <v>133</v>
       </c>
@@ -7228,9 +7234,9 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="36"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="30"/>
       <c r="D95" s="19" t="s">
         <v>135</v>
       </c>
@@ -7251,9 +7257,9 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="36"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="30"/>
       <c r="D96" s="19" t="s">
         <v>485</v>
       </c>
@@ -7274,9 +7280,9 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="37"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="31"/>
       <c r="D97" s="19" t="s">
         <v>487</v>
       </c>
@@ -7297,24 +7303,24 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="30">
-        <v>15</v>
-      </c>
-      <c r="B99" s="30" t="s">
+      <c r="A99" s="36">
+        <v>15</v>
+      </c>
+      <c r="B99" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="29" t="s">
         <v>341</v>
       </c>
       <c r="D99" s="19" t="s">
@@ -7337,9 +7343,9 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="36"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="19" t="s">
         <v>131</v>
       </c>
@@ -7360,9 +7366,9 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="36"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="30"/>
       <c r="D101" s="19" t="s">
         <v>132</v>
       </c>
@@ -7383,9 +7389,9 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="36"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="30"/>
       <c r="D102" s="19" t="s">
         <v>133</v>
       </c>
@@ -7406,9 +7412,9 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="37"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="31"/>
       <c r="D103" s="19" t="s">
         <v>135</v>
       </c>
@@ -7429,24 +7435,24 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="30">
+      <c r="A105" s="36">
         <v>16</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="29" t="s">
         <v>342</v>
       </c>
       <c r="D105" s="19" t="s">
@@ -7469,9 +7475,9 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="36"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="30"/>
       <c r="D106" s="19" t="s">
         <v>131</v>
       </c>
@@ -7492,9 +7498,9 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="36"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="30"/>
       <c r="D107" s="19" t="s">
         <v>132</v>
       </c>
@@ -7515,9 +7521,9 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="36"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="30"/>
       <c r="D108" s="19" t="s">
         <v>133</v>
       </c>
@@ -7538,9 +7544,9 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="30"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="36"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="30"/>
       <c r="D109" s="19" t="s">
         <v>135</v>
       </c>
@@ -7561,9 +7567,9 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="30"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="36"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="30"/>
       <c r="D110" s="19" t="s">
         <v>485</v>
       </c>
@@ -7584,9 +7590,9 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="30"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="37"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="31"/>
       <c r="D111" s="19" t="s">
         <v>489</v>
       </c>
@@ -7607,24 +7613,24 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="34"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="30">
+      <c r="A113" s="36">
         <v>17</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="29" t="s">
         <v>343</v>
       </c>
       <c r="D113" s="19" t="s">
@@ -7647,9 +7653,9 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="30"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="36"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="30"/>
       <c r="D114" s="19" t="s">
         <v>131</v>
       </c>
@@ -7670,9 +7676,9 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="30"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="36"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="30"/>
       <c r="D115" s="19" t="s">
         <v>132</v>
       </c>
@@ -7693,9 +7699,9 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="30"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="36"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="30"/>
       <c r="D116" s="19" t="s">
         <v>133</v>
       </c>
@@ -7716,9 +7722,9 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="37"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="31"/>
       <c r="D117" s="19" t="s">
         <v>135</v>
       </c>
@@ -7739,24 +7745,24 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="34"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
+      <c r="A118" s="32"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="30">
+      <c r="A119" s="36">
         <v>18</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="36" t="s">
         <v>491</v>
       </c>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="29" t="s">
         <v>443</v>
       </c>
       <c r="D119" s="19" t="s">
@@ -7779,9 +7785,9 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="36"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="30"/>
       <c r="D120" s="19" t="s">
         <v>131</v>
       </c>
@@ -7802,9 +7808,9 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="30"/>
-      <c r="B121" s="30"/>
-      <c r="C121" s="36"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="30"/>
       <c r="D121" s="19" t="s">
         <v>132</v>
       </c>
@@ -7825,9 +7831,9 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="30"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="36"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="30"/>
       <c r="D122" s="19" t="s">
         <v>133</v>
       </c>
@@ -7848,9 +7854,9 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="37"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="31"/>
       <c r="D123" s="19" t="s">
         <v>135</v>
       </c>
@@ -7871,13 +7877,13 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="30">
+      <c r="A125" s="36">
         <v>19</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="C125" s="35" t="s">
+      <c r="C125" s="29" t="s">
         <v>476</v>
       </c>
       <c r="D125" s="19" t="s">
@@ -7900,9 +7906,9 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="36"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="30"/>
       <c r="D126" s="19" t="s">
         <v>478</v>
       </c>
@@ -7923,9 +7929,9 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="37"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="31"/>
       <c r="D127" s="19" t="s">
         <v>480</v>
       </c>
@@ -7946,13 +7952,13 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="27">
+      <c r="A129" s="26">
         <v>20</v>
       </c>
-      <c r="B129" s="27" t="s">
+      <c r="B129" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="C129" s="27" t="s">
+      <c r="C129" s="26" t="s">
         <v>483</v>
       </c>
       <c r="D129" s="19" t="s">
@@ -7975,13 +7981,13 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="30">
+      <c r="A131" s="36">
         <v>21</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="36" t="s">
         <v>492</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="29" t="s">
         <v>493</v>
       </c>
       <c r="D131" s="19" t="s">
@@ -8004,9 +8010,9 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="30"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="36"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="30"/>
       <c r="D132" s="19" t="s">
         <v>495</v>
       </c>
@@ -8027,9 +8033,9 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="30"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="37"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="31"/>
       <c r="D133" s="19" t="s">
         <v>496</v>
       </c>
@@ -8051,45 +8057,21 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="C4:C14"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="C70:C71"/>
     <mergeCell ref="C119:C123"/>
     <mergeCell ref="A119:A123"/>
     <mergeCell ref="A44:A50"/>
@@ -8106,30 +8088,54 @@
     <mergeCell ref="A72:I72"/>
     <mergeCell ref="A69:I69"/>
     <mergeCell ref="A63:I63"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="A118:I118"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A104:I104"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A35:I35"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="C4:C14"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A104:I104"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A43:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8157,30 +8163,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -8212,13 +8218,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="36">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="35" t="s">
         <v>205</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -8241,10 +8247,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="27" t="s">
         <v>131</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -8264,9 +8270,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="19" t="s">
         <v>132</v>
       </c>
@@ -8287,9 +8293,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="19" t="s">
         <v>133</v>
       </c>
@@ -8310,9 +8316,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="19" t="s">
         <v>135</v>
       </c>
@@ -8333,24 +8339,24 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="36">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="35" t="s">
         <v>212</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -8373,9 +8379,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="19" t="s">
         <v>131</v>
       </c>
@@ -8396,9 +8402,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="19" t="s">
         <v>132</v>
       </c>
@@ -8419,9 +8425,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="19" t="s">
         <v>133</v>
       </c>
@@ -8442,9 +8448,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="19" t="s">
         <v>135</v>
       </c>
@@ -8465,24 +8471,24 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="36">
         <v>3</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="35" t="s">
         <v>219</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -8505,9 +8511,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="19" t="s">
         <v>131</v>
       </c>
@@ -8528,9 +8534,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="19" t="s">
         <v>132</v>
       </c>
@@ -8551,9 +8557,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="19" t="s">
         <v>133</v>
       </c>
@@ -8574,9 +8580,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="19" t="s">
         <v>135</v>
       </c>
@@ -8597,24 +8603,24 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="36">
         <v>4</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="35" t="s">
         <v>226</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -8637,9 +8643,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="19" t="s">
         <v>131</v>
       </c>
@@ -8660,9 +8666,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="19" t="s">
         <v>132</v>
       </c>
@@ -8683,9 +8689,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="19" t="s">
         <v>133</v>
       </c>
@@ -8706,9 +8712,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="19" t="s">
         <v>135</v>
       </c>
@@ -8729,24 +8735,24 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="36">
         <v>5</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="35" t="s">
         <v>233</v>
       </c>
       <c r="D28" s="19" t="s">
@@ -8769,9 +8775,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="19" t="s">
         <v>131</v>
       </c>
@@ -8792,9 +8798,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="32"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="19" t="s">
         <v>132</v>
       </c>
@@ -8815,9 +8821,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="32"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="19" t="s">
         <v>133</v>
       </c>
@@ -8838,9 +8844,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="32"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="19" t="s">
         <v>135</v>
       </c>
@@ -8861,18 +8867,29 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -8880,21 +8897,10 @@
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="C22:C26"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A21:I21"/>
     <mergeCell ref="A15:I15"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
